--- a/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Nov-2025/جدول التجمع يوم 14-11-2025.xlsx
+++ b/Transcom-Tagamo3-DataBase/ReadyToSend/Daily_Schedule/Nov-2025/جدول التجمع يوم 14-11-2025.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Daily Report Data" sheetId="10" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$802</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Daily Report Data'!$A$1:$H$803</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="775">
   <si>
     <t>بدايةالشيفت</t>
   </si>
@@ -2242,6 +2242,9 @@
     <t>احمد قرضاوي</t>
   </si>
   <si>
+    <t>فارس عصام الدين حسن خليفة</t>
+  </si>
+  <si>
     <t>سجا عامر</t>
   </si>
   <si>
@@ -2354,9 +2357,6 @@
   </si>
   <si>
     <t>محمد عارف عزام</t>
-  </si>
-  <si>
-    <t>فارس عصام الدين حسن خليفة</t>
   </si>
   <si>
     <t>ألوك مايوم</t>
@@ -2607,7 +2607,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2629,6 +2629,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2976,7 +2982,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3000,16 +3006,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3018,85 +3024,85 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
@@ -3110,7 +3116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3178,19 +3184,13 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3199,7 +3199,19 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -5702,611 +5714,611 @@
     </dxf>
   </dxfs>
   <tableStyles count="152" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{95049100-F072-4F65-99C2-E8F1F14BBCBD}">
+    <tableStyle name="31 Mar - 6 Apr-style" pivot="0" count="2" xr9:uid="{BE68A38A-A1ED-47F4-A64A-E046B46ACE04}">
       <tableStyleElement type="firstRowStripe" dxfId="1"/>
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{E390BB15-16AE-40D0-B711-380EB7220D19}">
+    <tableStyle name="Apr 7 - Apr 13-style" pivot="0" count="2" xr9:uid="{3CDC7470-C0D3-4B37-868E-53A7BCD01CF7}">
       <tableStyleElement type="firstRowStripe" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{5DAA0F69-C515-4833-B6E7-7417D0D645F1}">
+    <tableStyle name="Apr 14 - Apr 20-style 2" pivot="0" count="2" xr9:uid="{86735FE7-C06F-465A-820B-F649F6F24ABD}">
       <tableStyleElement type="firstRowStripe" dxfId="5"/>
       <tableStyleElement type="secondRowStripe" dxfId="4"/>
     </tableStyle>
-    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{653DC305-9512-4D98-B643-149D35AC5824}">
+    <tableStyle name="Apr 14 - Apr 20-style 4" pivot="0" count="2" xr9:uid="{92E99881-3B06-4676-AD63-AC3D57F21E78}">
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
       <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{19A3BBD4-688C-42B7-BCB2-5C62E4709401}">
+    <tableStyle name="Apr 21 - Apr 27-style 2" pivot="0" count="2" xr9:uid="{52D946E3-49ED-4D2F-B119-F76B7F53AED3}">
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
       <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{2A9E58E0-2190-4CDA-A474-D5BBA0AB9F3B}">
+    <tableStyle name="Apr 21 - Apr 27-style 3" pivot="0" count="2" xr9:uid="{1DF0ABE5-2A52-4355-A9A0-D801CEB5F371}">
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{DF7FD293-032F-4429-B9FC-18CF84D357A4}">
+    <tableStyle name="Apr 21 - Apr 27-style 5" pivot="0" count="2" xr9:uid="{14D1B188-4FBA-4FE4-83A5-05C921626D27}">
       <tableStyleElement type="firstRowStripe" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{485EADFA-CCC4-42ED-BE65-B57803ED1080}">
+    <tableStyle name="Apr 28 - May 4-style 2" pivot="0" count="2" xr9:uid="{CB9B146C-4DC1-459A-98D6-589A7AF2D2DA}">
       <tableStyleElement type="firstRowStripe" dxfId="15"/>
       <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{22611565-614F-4A84-96ED-D97BFFC9C1FE}">
+    <tableStyle name="Apr 28 - May 4-style 3" pivot="0" count="2" xr9:uid="{6937CB96-B8E5-4026-A190-60B8417426F2}">
       <tableStyleElement type="firstRowStripe" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{08F0E164-714B-4C31-8B41-9C8A54CEEE78}">
+    <tableStyle name="May 5 - May 11-style 2" pivot="0" count="2" xr9:uid="{D1E32FDA-49F5-41BB-AE1B-97241214AD29}">
       <tableStyleElement type="firstRowStripe" dxfId="19"/>
       <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
-    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{2C905FF0-3CBD-46C9-9ED1-AF597603A3E9}">
+    <tableStyle name="May 5 - May 11-style 3" pivot="0" count="2" xr9:uid="{9383547F-4F5D-42CF-A538-CBA1CE12246E}">
       <tableStyleElement type="firstRowStripe" dxfId="21"/>
       <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{EFCEFD07-A62A-4CBB-875C-C805732DEA35}">
+    <tableStyle name="May 12 - May 18-style 4" pivot="0" count="2" xr9:uid="{4DAEEAB5-EF92-4A08-909E-B07EC309B0FD}">
       <tableStyleElement type="firstRowStripe" dxfId="23"/>
       <tableStyleElement type="secondRowStripe" dxfId="22"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{2B832DCA-A8E4-41B1-ACF0-73AA19BE1F91}">
+    <tableStyle name="May 12 - May 18-style 5" pivot="0" count="2" xr9:uid="{E2C1C7A1-1D03-4C72-A014-D3ADEF0AAAA9}">
       <tableStyleElement type="firstRowStripe" dxfId="25"/>
       <tableStyleElement type="secondRowStripe" dxfId="24"/>
     </tableStyle>
-    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{A2FF85D1-44E9-4DD1-BC47-3FF0631518EB}">
+    <tableStyle name="May 12 - May 18-style 9" pivot="0" count="2" xr9:uid="{5DA1B924-1839-4BC9-B297-2D691347B965}">
       <tableStyleElement type="firstRowStripe" dxfId="27"/>
       <tableStyleElement type="secondRowStripe" dxfId="26"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{2FA6FBE6-ACFC-4043-A6DC-359B6E537ECA}">
+    <tableStyle name="May 19 - May 25-style 4" pivot="0" count="2" xr9:uid="{C65DEC67-39D2-4AF0-BCAB-7B3B35BAB305}">
       <tableStyleElement type="firstRowStripe" dxfId="29"/>
       <tableStyleElement type="secondRowStripe" dxfId="28"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{1F0F5F7B-A1F9-4AF0-BEC1-CBB9CC787329}">
+    <tableStyle name="May 19 - May 25-style 5" pivot="0" count="2" xr9:uid="{F15D34BE-A245-40F1-99D1-395289BC4C15}">
       <tableStyleElement type="firstRowStripe" dxfId="31"/>
       <tableStyleElement type="secondRowStripe" dxfId="30"/>
     </tableStyle>
-    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{DF7AF0E1-CB5D-4F54-87C4-0E26E096BEB0}">
+    <tableStyle name="May 19 - May 25-style 9" pivot="0" count="2" xr9:uid="{A7C9DC21-AC86-4BE4-8EF9-F9CE1F14F664}">
       <tableStyleElement type="firstRowStripe" dxfId="33"/>
       <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{C1701687-42BD-437B-8A41-7A3D397412AA}">
+    <tableStyle name="Jun 2 - JUN 8-style 4" pivot="0" count="2" xr9:uid="{252DB3CD-C4F8-479F-90BD-DD7CA5EA30CD}">
       <tableStyleElement type="firstRowStripe" dxfId="35"/>
       <tableStyleElement type="secondRowStripe" dxfId="34"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{DF7D4073-6A73-4106-9E20-8E1920DD6348}">
+    <tableStyle name="Jun 2 - JUN 8-style 5" pivot="0" count="2" xr9:uid="{2C6D0DA3-42C7-4AEC-BCE8-710083455F04}">
       <tableStyleElement type="firstRowStripe" dxfId="37"/>
       <tableStyleElement type="secondRowStripe" dxfId="36"/>
     </tableStyle>
-    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{B3509ECA-547F-4F84-9C2B-751BD5DBC842}">
+    <tableStyle name="Jun 2 - JUN 8-style 9" pivot="0" count="2" xr9:uid="{38D9B59C-F1A0-4CE1-8A76-AC9B0DA712E7}">
       <tableStyleElement type="firstRowStripe" dxfId="39"/>
       <tableStyleElement type="secondRowStripe" dxfId="38"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{6C618D45-A98A-444E-BEC3-C34D7226FFB1}">
+    <tableStyle name="Jun 9 - Jun 15-style 4" pivot="0" count="2" xr9:uid="{7D990612-DF97-4DB8-8127-089E1D7A24ED}">
       <tableStyleElement type="firstRowStripe" dxfId="41"/>
       <tableStyleElement type="secondRowStripe" dxfId="40"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{61B385F9-29CF-434A-84C3-C0E447C45596}">
+    <tableStyle name="Jun 9 - Jun 15-style 5" pivot="0" count="2" xr9:uid="{4B99ADC6-C00D-4B01-A4D4-1AB69868E343}">
       <tableStyleElement type="firstRowStripe" dxfId="43"/>
       <tableStyleElement type="secondRowStripe" dxfId="42"/>
     </tableStyle>
-    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{D14936A3-B184-4B14-94BC-046DDCA40FAE}">
+    <tableStyle name="Jun 9 - Jun 15-style 9" pivot="0" count="2" xr9:uid="{2C0B35EE-D23A-481E-BB90-F6EE04348863}">
       <tableStyleElement type="firstRowStripe" dxfId="45"/>
       <tableStyleElement type="secondRowStripe" dxfId="44"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{29A3FF33-E211-4126-8B65-6F847A2A43D8}">
+    <tableStyle name="Jun 16 - Jun 22-style 2" pivot="0" count="2" xr9:uid="{ACB8563D-88A6-4B38-A263-982B97A4E116}">
       <tableStyleElement type="firstRowStripe" dxfId="47"/>
       <tableStyleElement type="secondRowStripe" dxfId="46"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{99440BFD-8E0F-4CD9-907A-6DF654DB9DD0}">
+    <tableStyle name="Jun 16 - Jun 22-style 9" pivot="0" count="2" xr9:uid="{963BB4BA-DC14-4D14-9E7D-66776A9F0260}">
       <tableStyleElement type="firstRowStripe" dxfId="49"/>
       <tableStyleElement type="secondRowStripe" dxfId="48"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{41EE143B-00C3-4E8A-B90F-7219BDC36940}">
+    <tableStyle name="Jun 16 - Jun 22-style 16" pivot="0" count="2" xr9:uid="{C61537B9-9B75-413F-89D3-6450DFA733A5}">
       <tableStyleElement type="firstRowStripe" dxfId="51"/>
       <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{C1CA6F8A-90CA-42CD-AF07-D62AA86B5A8C}">
+    <tableStyle name="Jun 16 - Jun 22-style 17" pivot="0" count="2" xr9:uid="{80C18B82-307B-4DC4-B549-1AF59502D004}">
       <tableStyleElement type="firstRowStripe" dxfId="53"/>
       <tableStyleElement type="secondRowStripe" dxfId="52"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{80D4BE70-8427-435E-8945-E99C3BC52927}">
+    <tableStyle name="Jun 16 - Jun 22-style 13" pivot="0" count="2" xr9:uid="{F6F27369-C649-4A54-AFEC-30476AFF7BD9}">
       <tableStyleElement type="firstRowStripe" dxfId="55"/>
       <tableStyleElement type="secondRowStripe" dxfId="54"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{BCD6EF10-1A05-4BEB-BDF2-78C8B8AF8BB1}">
+    <tableStyle name="Jun 16 - Jun 22-style 18" pivot="0" count="2" xr9:uid="{F14EA4D0-96EC-4045-9DCB-A8A4CAD430E4}">
       <tableStyleElement type="firstRowStripe" dxfId="57"/>
       <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{7B1CF0E5-3A88-41BA-B518-994FAFF511F3}">
+    <tableStyle name="Jun 16 - Jun 22-style 14" pivot="0" count="2" xr9:uid="{919FBE74-D107-4A68-BB39-7B52F2BA999E}">
       <tableStyleElement type="firstRowStripe" dxfId="59"/>
       <tableStyleElement type="secondRowStripe" dxfId="58"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{5B0E2132-DD5C-4468-9932-08A335A86BB5}">
+    <tableStyle name="Jun 16 - Jun 22-style 15" pivot="0" count="2" xr9:uid="{35F29D66-BCAF-443B-989A-2BC0FABFA8D3}">
       <tableStyleElement type="firstRowStripe" dxfId="61"/>
       <tableStyleElement type="secondRowStripe" dxfId="60"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{2780D3BB-942F-4402-8C60-564363B774AA}">
+    <tableStyle name="Jun 16 - Jun 22-style 5" pivot="0" count="2" xr9:uid="{AD28B0DB-B63B-476C-96A6-0A3994BD9D6B}">
       <tableStyleElement type="firstRowStripe" dxfId="63"/>
       <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{331CEBDE-E60A-40E9-8C14-E12B8055D134}">
+    <tableStyle name="Jun 16 - Jun 22-style 12" pivot="0" count="2" xr9:uid="{607C24E0-ACFB-4FE4-AE69-8BE9C7F9285D}">
       <tableStyleElement type="firstRowStripe" dxfId="65"/>
       <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{60EF0FC7-4B2F-4237-8F38-2F9B28F2940E}">
+    <tableStyle name="Jun 16 - Jun 22-style 6" pivot="0" count="2" xr9:uid="{63AD6353-96AD-44A8-A37D-12D7AEE5B29C}">
       <tableStyleElement type="firstRowStripe" dxfId="67"/>
       <tableStyleElement type="secondRowStripe" dxfId="66"/>
     </tableStyle>
-    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{50F22EDF-B0B1-4B02-9C42-2C871E21BAC5}">
+    <tableStyle name="Jun 16 - Jun 22-style 11" pivot="0" count="2" xr9:uid="{A8B6A2BE-44E5-459A-BE27-325C3F81846D}">
       <tableStyleElement type="firstRowStripe" dxfId="69"/>
       <tableStyleElement type="secondRowStripe" dxfId="68"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{1ED23CC0-DCA3-43D0-8260-ABDE9401E84B}">
+    <tableStyle name="Jun 23 - Jun 29-style 2" pivot="0" count="2" xr9:uid="{1445D6AB-B335-4F8C-9BDB-87E996F77095}">
       <tableStyleElement type="firstRowStripe" dxfId="71"/>
       <tableStyleElement type="secondRowStripe" dxfId="70"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{6D8FA562-DF0F-42CE-8F43-27189061A934}">
+    <tableStyle name="Jun 23 - Jun 29-style 9" pivot="0" count="2" xr9:uid="{69A55F56-0352-4EE8-8E29-E4B4514F003D}">
       <tableStyleElement type="firstRowStripe" dxfId="73"/>
       <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{EAAF8517-F176-4699-BB94-2A8D198B28FF}">
+    <tableStyle name="Jun 23 - Jun 29-style 16" pivot="0" count="2" xr9:uid="{67831A9B-3A1D-4A9C-86A7-4B4B3E5AB82A}">
       <tableStyleElement type="firstRowStripe" dxfId="75"/>
       <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{CC7662AE-0EDE-4997-9340-E3F2A1FD68C8}">
+    <tableStyle name="Jun 23 - Jun 29-style 17" pivot="0" count="2" xr9:uid="{3D972332-0CD7-42AC-8060-DF317AB98ACF}">
       <tableStyleElement type="firstRowStripe" dxfId="77"/>
       <tableStyleElement type="secondRowStripe" dxfId="76"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{2D203695-92B8-44A2-AF63-79D1CD1E16F2}">
+    <tableStyle name="Jun 23 - Jun 29-style 13" pivot="0" count="2" xr9:uid="{0461DDEB-2A20-45AC-BA33-FF3BFEDFBD6C}">
       <tableStyleElement type="firstRowStripe" dxfId="79"/>
       <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{AD26F708-9AE7-4126-8F02-DC40AB507601}">
+    <tableStyle name="Jun 23 - Jun 29-style 18" pivot="0" count="2" xr9:uid="{BE9FA085-CFF2-4A59-8227-BEED23780A0A}">
       <tableStyleElement type="firstRowStripe" dxfId="81"/>
       <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{39235F13-9B69-46A7-8BF8-B79D38E71CBB}">
+    <tableStyle name="Jun 23 - Jun 29-style 14" pivot="0" count="2" xr9:uid="{068408CF-7750-4789-B489-D492AFE697E1}">
       <tableStyleElement type="firstRowStripe" dxfId="83"/>
       <tableStyleElement type="secondRowStripe" dxfId="82"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{A0D5D0A0-7DBD-4381-96C4-93A7D541AB77}">
+    <tableStyle name="Jun 23 - Jun 29-style 15" pivot="0" count="2" xr9:uid="{C394B8B1-0D5C-41D7-9694-8B8444F4953E}">
       <tableStyleElement type="firstRowStripe" dxfId="85"/>
       <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{6CF94EB2-9B0C-4DC2-AA27-1E7600AA6306}">
+    <tableStyle name="Jun 23 - Jun 29-style 5" pivot="0" count="2" xr9:uid="{B9922B74-2B3B-4273-8B6B-A396BA3F92C0}">
       <tableStyleElement type="firstRowStripe" dxfId="87"/>
       <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{088F4A28-FDF9-4080-8267-979FA7B3FEF7}">
+    <tableStyle name="Jun 23 - Jun 29-style 12" pivot="0" count="2" xr9:uid="{9AD48404-7E19-4A9A-82F6-ABEA5E137F8F}">
       <tableStyleElement type="firstRowStripe" dxfId="89"/>
       <tableStyleElement type="secondRowStripe" dxfId="88"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{D9E3D9E4-51AF-4FBD-BDB3-B64912BC4A69}">
+    <tableStyle name="Jun 23 - Jun 29-style 6" pivot="0" count="2" xr9:uid="{D5C18B10-BC66-4819-8675-C5C22FA94DC9}">
       <tableStyleElement type="firstRowStripe" dxfId="91"/>
       <tableStyleElement type="secondRowStripe" dxfId="90"/>
     </tableStyle>
-    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{AE41160C-184E-4103-935E-B3969EBAB90A}">
+    <tableStyle name="Jun 23 - Jun 29-style 11" pivot="0" count="2" xr9:uid="{04F8F41B-6004-4929-AF01-5DDC41BEA495}">
       <tableStyleElement type="firstRowStripe" dxfId="93"/>
       <tableStyleElement type="secondRowStripe" dxfId="92"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{9167830B-1E39-4787-ABE8-878962568404}">
+    <tableStyle name="Jun 30 - Jul 6-style 7" pivot="0" count="2" xr9:uid="{A387C61F-9475-4685-B9F6-DD8D85EF50CB}">
       <tableStyleElement type="firstRowStripe" dxfId="95"/>
       <tableStyleElement type="secondRowStripe" dxfId="94"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{C7133FE0-A47A-48D6-9FBF-5A1A3A53FEFF}">
+    <tableStyle name="Jun 30 - Jul 6-style 14" pivot="0" count="2" xr9:uid="{53933AE1-17F5-410A-B784-4A25BBD4A7EB}">
       <tableStyleElement type="firstRowStripe" dxfId="97"/>
       <tableStyleElement type="secondRowStripe" dxfId="96"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{F63CE661-3225-46F0-A39A-DD22C37F39DF}">
+    <tableStyle name="Jun 30 - Jul 6-style 15" pivot="0" count="2" xr9:uid="{81E0109C-BE87-4FA2-9CD2-007D6B62285A}">
       <tableStyleElement type="firstRowStripe" dxfId="99"/>
       <tableStyleElement type="secondRowStripe" dxfId="98"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{EA01F3F6-31C2-47D5-A4D0-23DA7C946DFA}">
+    <tableStyle name="Jun 30 - Jul 6-style 11" pivot="0" count="2" xr9:uid="{7A8F11D3-B6C0-4CEE-88DB-5CAB16F9848C}">
       <tableStyleElement type="firstRowStripe" dxfId="101"/>
       <tableStyleElement type="secondRowStripe" dxfId="100"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{B5A9E9E0-B172-4FF9-839B-3DF336985474}">
+    <tableStyle name="Jun 30 - Jul 6-style 16" pivot="0" count="2" xr9:uid="{AE513AD3-AE74-46EE-857D-A9FB93564902}">
       <tableStyleElement type="firstRowStripe" dxfId="103"/>
       <tableStyleElement type="secondRowStripe" dxfId="102"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{9FDCF6F6-760A-4FE1-B84F-5C50DECA1161}">
+    <tableStyle name="Jun 30 - Jul 6-style 12" pivot="0" count="2" xr9:uid="{EB4CB92F-FA57-4080-9DEC-0F004E055D15}">
       <tableStyleElement type="firstRowStripe" dxfId="105"/>
       <tableStyleElement type="secondRowStripe" dxfId="104"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{B07AA2CB-6217-4116-90CC-D0CA32DD85E6}">
+    <tableStyle name="Jun 30 - Jul 6-style 13" pivot="0" count="2" xr9:uid="{DDCF1D0E-B9C5-47F9-B734-4A3718C44D27}">
       <tableStyleElement type="firstRowStripe" dxfId="107"/>
       <tableStyleElement type="secondRowStripe" dxfId="106"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{6F6E056B-9719-4ECC-A283-2DD3D87D2BCB}">
+    <tableStyle name="Jun 30 - Jul 6-style 3" pivot="0" count="2" xr9:uid="{3F0A6C58-8330-429E-8866-824855F8058F}">
       <tableStyleElement type="firstRowStripe" dxfId="109"/>
       <tableStyleElement type="secondRowStripe" dxfId="108"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{1A656413-A2CB-4824-AA40-065919BD9B41}">
+    <tableStyle name="Jun 30 - Jul 6-style 10" pivot="0" count="2" xr9:uid="{D62A0691-B844-4E6B-8AF4-AC2059A24C1B}">
       <tableStyleElement type="firstRowStripe" dxfId="111"/>
       <tableStyleElement type="secondRowStripe" dxfId="110"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{AC8A04A5-2ABB-4F4F-97F1-B819237D7564}">
+    <tableStyle name="Jun 30 - Jul 6-style 4" pivot="0" count="2" xr9:uid="{B0BB96C7-D72F-4B8E-B9C7-DE13668BAE5F}">
       <tableStyleElement type="firstRowStripe" dxfId="113"/>
       <tableStyleElement type="secondRowStripe" dxfId="112"/>
     </tableStyle>
-    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{0D55C118-1962-477B-B8B2-F485CDCED3F2}">
+    <tableStyle name="Jun 30 - Jul 6-style 9" pivot="0" count="2" xr9:uid="{30DD649D-E826-4FF4-A802-71B7A32F6ECC}">
       <tableStyleElement type="firstRowStripe" dxfId="115"/>
       <tableStyleElement type="secondRowStripe" dxfId="114"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{E986309C-A4FD-4B88-9C96-079EDE37DB37}">
+    <tableStyle name="Jul 7 - Jul 13-style 3" pivot="0" count="2" xr9:uid="{C1B053D8-12B8-461F-96D8-E66E8422A0C0}">
       <tableStyleElement type="firstRowStripe" dxfId="117"/>
       <tableStyleElement type="secondRowStripe" dxfId="116"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{1BD080F2-FC0D-47EA-A425-99C1675D70FD}">
+    <tableStyle name="Jul 7 - Jul 13-style 5" pivot="0" count="2" xr9:uid="{C99766C1-9D25-495B-B8BC-8268BD5A9AC9}">
       <tableStyleElement type="firstRowStripe" dxfId="119"/>
       <tableStyleElement type="secondRowStripe" dxfId="118"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{8FAA6C38-44AD-419A-A7C8-7C3CDE3F9E0B}">
+    <tableStyle name="Jul 7 - Jul 13-style 7" pivot="0" count="2" xr9:uid="{4C7AF802-E8A8-476D-813F-BB48AD90257F}">
       <tableStyleElement type="firstRowStripe" dxfId="121"/>
       <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{D5AF4C05-A0C6-4B18-B51F-6ECE30C28222}">
+    <tableStyle name="Jul 7 - Jul 13-style 14" pivot="0" count="2" xr9:uid="{60A9D0F1-A645-475D-927A-6EF48AC44EE6}">
       <tableStyleElement type="firstRowStripe" dxfId="123"/>
       <tableStyleElement type="secondRowStripe" dxfId="122"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{A7F6003E-2D92-4E0D-9C2D-51047D2836AC}">
+    <tableStyle name="Jul 7 - Jul 13-style 21" pivot="0" count="2" xr9:uid="{812C0CD8-D040-4BC8-8650-F3811C52277E}">
       <tableStyleElement type="firstRowStripe" dxfId="125"/>
       <tableStyleElement type="secondRowStripe" dxfId="124"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{7205C31A-E006-4F71-B37F-23E166D234C4}">
+    <tableStyle name="Jul 7 - Jul 13-style 22" pivot="0" count="2" xr9:uid="{867C3587-1FC4-4118-BC31-18A704792083}">
       <tableStyleElement type="firstRowStripe" dxfId="127"/>
       <tableStyleElement type="secondRowStripe" dxfId="126"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{AE96FE39-8957-44C8-A685-D6D8989194FB}">
+    <tableStyle name="Jul 7 - Jul 13-style 4" pivot="0" count="2" xr9:uid="{4A8DE317-DAA9-4A1C-97D8-B3410459181A}">
       <tableStyleElement type="firstRowStripe" dxfId="129"/>
       <tableStyleElement type="secondRowStripe" dxfId="128"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{5FD9A9D8-1EE4-449E-94C0-EB728D48D19C}">
+    <tableStyle name="Jul 7 - Jul 13-style 6" pivot="0" count="2" xr9:uid="{69DDDBCF-F2D1-4531-B5EC-9A16A180E78D}">
       <tableStyleElement type="firstRowStripe" dxfId="131"/>
       <tableStyleElement type="secondRowStripe" dxfId="130"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{6E44492C-B4C1-4205-B213-20FC2593CE82}">
+    <tableStyle name="Jul 7 - Jul 13-style 18" pivot="0" count="2" xr9:uid="{AAA0A531-35C3-451C-9A42-E4831B9E2CAC}">
       <tableStyleElement type="firstRowStripe" dxfId="133"/>
       <tableStyleElement type="secondRowStripe" dxfId="132"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{B6715E33-83F4-4D59-BBFF-A15F0BD9FF47}">
+    <tableStyle name="Jul 7 - Jul 13-style 23" pivot="0" count="2" xr9:uid="{CC3882EC-D6E7-4620-8131-275E145A9C0D}">
       <tableStyleElement type="firstRowStripe" dxfId="135"/>
       <tableStyleElement type="secondRowStripe" dxfId="134"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{238E420A-1951-4F90-9117-EA7BDBB24011}">
+    <tableStyle name="Jul 7 - Jul 13-style 2" pivot="0" count="2" xr9:uid="{D82BD596-483C-4470-99E1-CD8D1E98646C}">
       <tableStyleElement type="firstRowStripe" dxfId="137"/>
       <tableStyleElement type="secondRowStripe" dxfId="136"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{6E95500E-32BB-4805-8B19-D9A8F8BD6A40}">
+    <tableStyle name="Jul 7 - Jul 13-style 19" pivot="0" count="2" xr9:uid="{68C9836F-38F8-4701-A389-BD8B093928BC}">
       <tableStyleElement type="firstRowStripe" dxfId="139"/>
       <tableStyleElement type="secondRowStripe" dxfId="138"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{A7A1043E-4D13-4D58-B00B-7A4160896AA6}">
+    <tableStyle name="Jul 7 - Jul 13-style 20" pivot="0" count="2" xr9:uid="{795B5D51-D814-4473-8852-AA95C9ABA968}">
       <tableStyleElement type="firstRowStripe" dxfId="141"/>
       <tableStyleElement type="secondRowStripe" dxfId="140"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{745ACF9C-A4B2-44F4-AF07-B80E98D7D045}">
+    <tableStyle name="Jul 7 - Jul 13-style 9" pivot="0" count="2" xr9:uid="{B99C8592-90E4-4F2A-998C-2D405379FB18}">
       <tableStyleElement type="firstRowStripe" dxfId="143"/>
       <tableStyleElement type="secondRowStripe" dxfId="142"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{30C4F7A9-B3E1-4452-B13A-E563B0A3D1E7}">
+    <tableStyle name="Jul 7 - Jul 13-style 17" pivot="0" count="2" xr9:uid="{DE865C4A-700E-4812-A565-0802343BE1F0}">
       <tableStyleElement type="firstRowStripe" dxfId="145"/>
       <tableStyleElement type="secondRowStripe" dxfId="144"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{9A4FA179-885B-4D4E-A2E3-2F365AA4DA6F}">
+    <tableStyle name="Jul 7 - Jul 13-style 10" pivot="0" count="2" xr9:uid="{2775A1FE-B40C-4A7B-94C7-769901D73628}">
       <tableStyleElement type="firstRowStripe" dxfId="147"/>
       <tableStyleElement type="secondRowStripe" dxfId="146"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{9B5E7B3C-7158-41EE-9AF9-F3E92C6D75B3}">
+    <tableStyle name="Jul 7 - Jul 13-style 16" pivot="0" count="2" xr9:uid="{4D52E655-F016-47CF-8833-CEDBF0723DB9}">
       <tableStyleElement type="firstRowStripe" dxfId="149"/>
       <tableStyleElement type="secondRowStripe" dxfId="148"/>
     </tableStyle>
-    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{710FC39F-675C-4B7B-BA7B-A1A65B3A6771}">
+    <tableStyle name="Jul 7 - Jul 13-style 13" pivot="0" count="2" xr9:uid="{E10F2360-07FD-45C2-B309-4D67FC7F8D03}">
       <tableStyleElement type="firstRowStripe" dxfId="151"/>
       <tableStyleElement type="secondRowStripe" dxfId="150"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{BE9D98CA-27EE-4DAC-9821-680CD616DE8A}">
+    <tableStyle name="Jul 21 - Jul 27-style 3" pivot="0" count="2" xr9:uid="{5AA6B9D7-2DEE-4987-BE49-CBB79DFF6CE1}">
       <tableStyleElement type="firstRowStripe" dxfId="153"/>
       <tableStyleElement type="secondRowStripe" dxfId="152"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{3D636997-807F-4889-A3A0-19F54D285306}">
+    <tableStyle name="Jul 21 - Jul 27-style 5" pivot="0" count="2" xr9:uid="{D7019773-0305-4828-8DA7-0BA731DFC970}">
       <tableStyleElement type="firstRowStripe" dxfId="155"/>
       <tableStyleElement type="secondRowStripe" dxfId="154"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{792F55C7-F7AF-47F6-9A04-07CC565610D9}">
+    <tableStyle name="Jul 21 - Jul 27-style 7" pivot="0" count="2" xr9:uid="{638B8A69-449D-4E85-B0BF-2FC90057336C}">
       <tableStyleElement type="firstRowStripe" dxfId="157"/>
       <tableStyleElement type="secondRowStripe" dxfId="156"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{051E632A-9FB0-4226-BB1F-55AE4DCD2804}">
+    <tableStyle name="Jul 21 - Jul 27-style 10" pivot="0" count="2" xr9:uid="{5FD772A0-1488-4CDC-AD07-63034ECD9437}">
       <tableStyleElement type="firstRowStripe" dxfId="159"/>
       <tableStyleElement type="secondRowStripe" dxfId="158"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{14D403C6-8D45-4BBD-8261-F88BC53C69FF}">
+    <tableStyle name="Jul 21 - Jul 27-style 13" pivot="0" count="2" xr9:uid="{EE87C1A7-FFB4-4323-9222-57BE9473B4F9}">
       <tableStyleElement type="firstRowStripe" dxfId="161"/>
       <tableStyleElement type="secondRowStripe" dxfId="160"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{CD6A667B-9183-46CC-A769-DCDC0C3ECEBB}">
+    <tableStyle name="Jul 21 - Jul 27-style 15" pivot="0" count="2" xr9:uid="{BC575764-5381-4757-BFFA-6105A97D9835}">
       <tableStyleElement type="firstRowStripe" dxfId="163"/>
       <tableStyleElement type="secondRowStripe" dxfId="162"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{D93A2900-1EF5-481E-AD2A-94F0A446A48B}">
+    <tableStyle name="Jul 21 - Jul 27-style 20" pivot="0" count="2" xr9:uid="{45BB75B8-4ECD-41C1-9DF4-0C4D1D84BC4E}">
       <tableStyleElement type="firstRowStripe" dxfId="165"/>
       <tableStyleElement type="secondRowStripe" dxfId="164"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{73F4F12A-2E25-4E70-BB3C-2BE4E0AD9F55}">
+    <tableStyle name="Jul 21 - Jul 27-style 21" pivot="0" count="2" xr9:uid="{CE293B2C-B21D-491D-B868-DF2AF9301D89}">
       <tableStyleElement type="firstRowStripe" dxfId="167"/>
       <tableStyleElement type="secondRowStripe" dxfId="166"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{6EB986AE-BD7E-4805-B92E-75DF75B7F073}">
+    <tableStyle name="Jul 21 - Jul 27-style 22" pivot="0" count="2" xr9:uid="{7C90730F-59D8-493D-BBB5-0FDD45DCE799}">
       <tableStyleElement type="firstRowStripe" dxfId="169"/>
       <tableStyleElement type="secondRowStripe" dxfId="168"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{13BB00E2-8633-4955-9D4E-7A239C40B0CC}">
+    <tableStyle name="Jul 21 - Jul 27-style 24" pivot="0" count="2" xr9:uid="{B8E52920-AD9D-4B30-BC13-95289AFD125A}">
       <tableStyleElement type="firstRowStripe" dxfId="171"/>
       <tableStyleElement type="secondRowStripe" dxfId="170"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{897DB8C8-96BC-4641-9CA3-FBFE805FCBF2}">
+    <tableStyle name="Jul 21 - Jul 27-style 31" pivot="0" count="2" xr9:uid="{89DFF3B6-8B09-4D77-8378-4B498ED1AE53}">
       <tableStyleElement type="firstRowStripe" dxfId="173"/>
       <tableStyleElement type="secondRowStripe" dxfId="172"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{F9A82819-3972-4FB5-A3C8-9578A747A6B2}">
+    <tableStyle name="Jul 21 - Jul 27-style 33" pivot="0" count="2" xr9:uid="{0C7613E6-7FE6-4730-B88C-DDB14133EB35}">
       <tableStyleElement type="firstRowStripe" dxfId="175"/>
       <tableStyleElement type="secondRowStripe" dxfId="174"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{646D84DD-D214-4F3B-AA90-4D134EC6ED70}">
+    <tableStyle name="Jul 21 - Jul 27-style 4" pivot="0" count="2" xr9:uid="{EF135D60-789A-4FE2-BD7E-DAA6714189F3}">
       <tableStyleElement type="firstRowStripe" dxfId="177"/>
       <tableStyleElement type="secondRowStripe" dxfId="176"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{FBF9A5F0-E7D0-41D6-8F35-DAE1E69D1161}">
+    <tableStyle name="Jul 21 - Jul 27-style 6" pivot="0" count="2" xr9:uid="{5182999D-BA93-4F33-95BE-CB578BCAB839}">
       <tableStyleElement type="firstRowStripe" dxfId="179"/>
       <tableStyleElement type="secondRowStripe" dxfId="178"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{37734F47-21AA-4259-A170-AF08C7FF0271}">
+    <tableStyle name="Jul 21 - Jul 27-style 8" pivot="0" count="2" xr9:uid="{F38A75F2-738B-41FB-8014-556475CF1058}">
       <tableStyleElement type="firstRowStripe" dxfId="181"/>
       <tableStyleElement type="secondRowStripe" dxfId="180"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{7A3C7961-5E58-4301-94C0-DC1BA00348DD}">
+    <tableStyle name="Jul 21 - Jul 27-style 11" pivot="0" count="2" xr9:uid="{0BBEE648-5656-4883-8B77-B8403DF2DF7C}">
       <tableStyleElement type="firstRowStripe" dxfId="183"/>
       <tableStyleElement type="secondRowStripe" dxfId="182"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{68582FC9-9161-4292-893A-896BF28676CE}">
+    <tableStyle name="Jul 21 - Jul 27-style 12" pivot="0" count="2" xr9:uid="{DF3EA078-D5DD-4E86-84EB-311931846ACC}">
       <tableStyleElement type="firstRowStripe" dxfId="185"/>
       <tableStyleElement type="secondRowStripe" dxfId="184"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{AB6C3F50-E9AC-4298-B9F3-280572CE4166}">
+    <tableStyle name="Jul 21 - Jul 27-style 28" pivot="0" count="2" xr9:uid="{8FCF3387-8A81-4799-8BC5-26B3A46AF9F0}">
       <tableStyleElement type="firstRowStripe" dxfId="187"/>
       <tableStyleElement type="secondRowStripe" dxfId="186"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{9E997888-27FC-4ACE-923F-21CE3B2AE3BD}">
+    <tableStyle name="Jul 21 - Jul 27-style 34" pivot="0" count="2" xr9:uid="{93811391-4BA2-442F-BFAF-1A16232125BD}">
       <tableStyleElement type="firstRowStripe" dxfId="189"/>
       <tableStyleElement type="secondRowStripe" dxfId="188"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{E2A3FF9B-716E-4D7F-8F11-A752B799AA75}">
+    <tableStyle name="Jul 21 - Jul 27-style 2" pivot="0" count="2" xr9:uid="{930EB917-54CC-4E9C-8A49-C760F34D821D}">
       <tableStyleElement type="firstRowStripe" dxfId="191"/>
       <tableStyleElement type="secondRowStripe" dxfId="190"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{59E52356-D0E7-4946-B5E2-9511C4A5C46B}">
+    <tableStyle name="Jul 21 - Jul 27-style 9" pivot="0" count="2" xr9:uid="{A579C073-D495-40CE-8675-0DEBF098BE65}">
       <tableStyleElement type="firstRowStripe" dxfId="193"/>
       <tableStyleElement type="secondRowStripe" dxfId="192"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{1672991C-46C5-4C28-9A19-E91825602956}">
+    <tableStyle name="Jul 21 - Jul 27-style 29" pivot="0" count="2" xr9:uid="{CD355DA1-0DEB-4B84-B840-34A0D8492DEB}">
       <tableStyleElement type="firstRowStripe" dxfId="195"/>
       <tableStyleElement type="secondRowStripe" dxfId="194"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{9E440DC0-7308-4364-8012-475A07680C89}">
+    <tableStyle name="Jul 21 - Jul 27-style 30" pivot="0" count="2" xr9:uid="{EEF27E39-5CD3-4596-90A6-ADDDF12829C6}">
       <tableStyleElement type="firstRowStripe" dxfId="197"/>
       <tableStyleElement type="secondRowStripe" dxfId="196"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{84A5D29A-69F3-4EA5-B7E3-5A53EB484F44}">
+    <tableStyle name="Jul 21 - Jul 27-style 32" pivot="0" count="2" xr9:uid="{6F1B1280-E958-48B4-85ED-11A444411558}">
       <tableStyleElement type="firstRowStripe" dxfId="199"/>
       <tableStyleElement type="secondRowStripe" dxfId="198"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{1F9ADD7E-9690-4B06-B904-679E60E25B06}">
+    <tableStyle name="Jul 21 - Jul 27-style 35" pivot="0" count="2" xr9:uid="{D38C2E38-4943-40D1-88B4-92EC2E3A4874}">
       <tableStyleElement type="firstRowStripe" dxfId="201"/>
       <tableStyleElement type="secondRowStripe" dxfId="200"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{2D88AC52-1C1B-4B52-8BA6-039EA8D6A4B9}">
+    <tableStyle name="Jul 21 - Jul 27-style 16" pivot="0" count="2" xr9:uid="{A6020BC4-CECD-48F4-96AB-7077E1ECAA6D}">
       <tableStyleElement type="firstRowStripe" dxfId="203"/>
       <tableStyleElement type="secondRowStripe" dxfId="202"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{7A787435-1E06-49DA-9405-18752B28F616}">
+    <tableStyle name="Jul 21 - Jul 27-style 26" pivot="0" count="2" xr9:uid="{A481DF6B-2BE8-40AD-9D17-7C13F2D78C78}">
       <tableStyleElement type="firstRowStripe" dxfId="205"/>
       <tableStyleElement type="secondRowStripe" dxfId="204"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{B7764383-8419-4133-9D31-8379735270F9}">
+    <tableStyle name="Jul 21 - Jul 27-style 27" pivot="0" count="2" xr9:uid="{49B4099D-9910-4ABA-9DEB-1AE8DA2B6CFE}">
       <tableStyleElement type="firstRowStripe" dxfId="207"/>
       <tableStyleElement type="secondRowStripe" dxfId="206"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{FA12C93E-58C6-440C-86D8-EA9EFC7E023D}">
+    <tableStyle name="Jul 21 - Jul 27-style 17" pivot="0" count="2" xr9:uid="{F8537D9E-2DD1-4249-9352-07033448C250}">
       <tableStyleElement type="firstRowStripe" dxfId="209"/>
       <tableStyleElement type="secondRowStripe" dxfId="208"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{C69A2013-4C68-41B2-B8BF-01E6428442CE}">
+    <tableStyle name="Jul 21 - Jul 27-style 25" pivot="0" count="2" xr9:uid="{921FB988-4E24-4797-9235-A0A38A931252}">
       <tableStyleElement type="firstRowStripe" dxfId="211"/>
       <tableStyleElement type="secondRowStripe" dxfId="210"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{A4F00F44-F91A-48AE-BC5C-AD7A36F747B7}">
+    <tableStyle name="Jul 21 - Jul 27-style 40" pivot="0" count="2" xr9:uid="{8B9E0A7A-E3A9-46E1-B7D9-F85D32BA6F0C}">
       <tableStyleElement type="firstRowStripe" dxfId="213"/>
       <tableStyleElement type="secondRowStripe" dxfId="212"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{C6DE4A11-2DC9-45E3-BFD5-F8082B77BB02}">
+    <tableStyle name="Jul 21 - Jul 27-style 43" pivot="0" count="2" xr9:uid="{1147AF58-1409-48E0-B5D1-5AED1196A5B4}">
       <tableStyleElement type="firstRowStripe" dxfId="215"/>
       <tableStyleElement type="secondRowStripe" dxfId="214"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{1088366A-E190-413A-BF7D-0758119958D9}">
+    <tableStyle name="Jul 21 - Jul 27-style 41" pivot="0" count="2" xr9:uid="{31F28B46-3E0F-435D-A09F-981DDC83BE13}">
       <tableStyleElement type="firstRowStripe" dxfId="217"/>
       <tableStyleElement type="secondRowStripe" dxfId="216"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{D096B64D-7576-4145-92F7-AFA68D3AD9F7}">
+    <tableStyle name="Jul 21 - Jul 27-style 42" pivot="0" count="2" xr9:uid="{D4391C88-CFAD-4086-80E9-C377BE5B217C}">
       <tableStyleElement type="firstRowStripe" dxfId="219"/>
       <tableStyleElement type="secondRowStripe" dxfId="218"/>
     </tableStyle>
-    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{7313811D-3C69-4BB6-AEC9-C22C8E0243B7}">
+    <tableStyle name="Jul 21 - Jul 27-style 44" pivot="0" count="2" xr9:uid="{F1440AEF-8813-4622-89A8-B2FC6943EE4B}">
       <tableStyleElement type="firstRowStripe" dxfId="221"/>
       <tableStyleElement type="secondRowStripe" dxfId="220"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{27084939-29E3-4B44-B16F-796D0948B1DE}">
+    <tableStyle name="Jul 28 - Aug 3-style 3" pivot="0" count="2" xr9:uid="{BD2308C3-D7F6-4459-A7D8-7162C9DBAFF6}">
       <tableStyleElement type="firstRowStripe" dxfId="223"/>
       <tableStyleElement type="secondRowStripe" dxfId="222"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{0EE6B24C-B362-48DB-BE6F-72A6C6761E8A}">
+    <tableStyle name="Jul 28 - Aug 3-style 5" pivot="0" count="2" xr9:uid="{EDECC760-E5B1-4645-90D4-A74D87AEB4F0}">
       <tableStyleElement type="firstRowStripe" dxfId="225"/>
       <tableStyleElement type="secondRowStripe" dxfId="224"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{A52E09CC-3439-41B7-943C-ADEC41A053A7}">
+    <tableStyle name="Jul 28 - Aug 3-style 7" pivot="0" count="2" xr9:uid="{3F68AD32-FA33-4421-9AED-19816E9B825C}">
       <tableStyleElement type="firstRowStripe" dxfId="227"/>
       <tableStyleElement type="secondRowStripe" dxfId="226"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{5225B568-5849-4AC2-80D3-D094C6699D54}">
+    <tableStyle name="Jul 28 - Aug 3-style 10" pivot="0" count="2" xr9:uid="{B7B9D2DC-3698-48BE-9F73-40E9D7E56F78}">
       <tableStyleElement type="firstRowStripe" dxfId="229"/>
       <tableStyleElement type="secondRowStripe" dxfId="228"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{18010CDD-A89A-4D0D-A6ED-2354009EDBF6}">
+    <tableStyle name="Jul 28 - Aug 3-style 13" pivot="0" count="2" xr9:uid="{F3EDE52C-4956-4AF1-86C0-443577B8C24F}">
       <tableStyleElement type="firstRowStripe" dxfId="231"/>
       <tableStyleElement type="secondRowStripe" dxfId="230"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{A91D6B16-3D3C-44F9-BC9A-F08DC4CA1D85}">
+    <tableStyle name="Jul 28 - Aug 3-style 15" pivot="0" count="2" xr9:uid="{D7391AE1-2677-415B-A706-009B33BD0BD3}">
       <tableStyleElement type="firstRowStripe" dxfId="233"/>
       <tableStyleElement type="secondRowStripe" dxfId="232"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{EA453799-D3FD-4844-B2CF-317C15B51B2C}">
+    <tableStyle name="Jul 28 - Aug 3-style 20" pivot="0" count="2" xr9:uid="{4DC67D2D-A168-4041-BE85-7584B80624CF}">
       <tableStyleElement type="firstRowStripe" dxfId="235"/>
       <tableStyleElement type="secondRowStripe" dxfId="234"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{0B486F70-5E41-4849-A902-E652B3B641A1}">
+    <tableStyle name="Jul 28 - Aug 3-style 21" pivot="0" count="2" xr9:uid="{348860EF-7ECB-4B16-8AE3-3FB4365B280F}">
       <tableStyleElement type="firstRowStripe" dxfId="237"/>
       <tableStyleElement type="secondRowStripe" dxfId="236"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{FA07CF06-4003-4830-87E0-6492D9A8A645}">
+    <tableStyle name="Jul 28 - Aug 3-style 22" pivot="0" count="2" xr9:uid="{C000A231-BE68-4B45-897E-651A0AA5121C}">
       <tableStyleElement type="firstRowStripe" dxfId="239"/>
       <tableStyleElement type="secondRowStripe" dxfId="238"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{3032133D-0C11-4726-9A2C-CDC908A3544F}">
+    <tableStyle name="Jul 28 - Aug 3-style 23" pivot="0" count="2" xr9:uid="{01A4C79E-35DE-4A45-A959-F7184BBEDB11}">
       <tableStyleElement type="firstRowStripe" dxfId="241"/>
       <tableStyleElement type="secondRowStripe" dxfId="240"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{E9ADB2B5-CBB6-442C-9EB4-FB9EEABB1913}">
+    <tableStyle name="Jul 28 - Aug 3-style 24" pivot="0" count="2" xr9:uid="{73096303-F841-400E-B8F7-0DEDDBF561C3}">
       <tableStyleElement type="firstRowStripe" dxfId="243"/>
       <tableStyleElement type="secondRowStripe" dxfId="242"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{CA3541E9-AFB1-43A7-9023-E73DB67DB7E3}">
+    <tableStyle name="Jul 28 - Aug 3-style 26" pivot="0" count="2" xr9:uid="{A6A15E58-5D5A-415E-82EC-55A7AB2AA54E}">
       <tableStyleElement type="firstRowStripe" dxfId="245"/>
       <tableStyleElement type="secondRowStripe" dxfId="244"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{0F24C8CD-9A09-4E92-AF01-9D777D9BF290}">
+    <tableStyle name="Jul 28 - Aug 3-style 34" pivot="0" count="2" xr9:uid="{789CF050-E83A-4358-9E39-74FCC8C20DBA}">
       <tableStyleElement type="firstRowStripe" dxfId="247"/>
       <tableStyleElement type="secondRowStripe" dxfId="246"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{3FBF89CE-1A63-402E-860A-AF6EFB2EF369}">
+    <tableStyle name="Jul 28 - Aug 3-style 36" pivot="0" count="2" xr9:uid="{0651748C-201F-426B-9C95-8C64641D7109}">
       <tableStyleElement type="firstRowStripe" dxfId="249"/>
       <tableStyleElement type="secondRowStripe" dxfId="248"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{033D3907-3D59-4922-B662-DB035F4E8F81}">
+    <tableStyle name="Jul 28 - Aug 3-style 4" pivot="0" count="2" xr9:uid="{A08C4DE3-D248-40FE-BA77-8F39683B18FC}">
       <tableStyleElement type="firstRowStripe" dxfId="251"/>
       <tableStyleElement type="secondRowStripe" dxfId="250"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{FB3A3AF3-DD55-40FD-8B67-D33F5DF3F8A1}">
+    <tableStyle name="Jul 28 - Aug 3-style 6" pivot="0" count="2" xr9:uid="{603EA12F-FD9E-413E-B755-D51A4A1CE35D}">
       <tableStyleElement type="firstRowStripe" dxfId="253"/>
       <tableStyleElement type="secondRowStripe" dxfId="252"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{9A39D350-4F95-42BC-AD8A-149BAAC2796A}">
+    <tableStyle name="Jul 28 - Aug 3-style 8" pivot="0" count="2" xr9:uid="{AAC8BB6C-EF60-4B82-A51A-6617C8CE47E4}">
       <tableStyleElement type="firstRowStripe" dxfId="255"/>
       <tableStyleElement type="secondRowStripe" dxfId="254"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{8EFB0D43-4AD0-4625-BEA6-C1F8B3604555}">
+    <tableStyle name="Jul 28 - Aug 3-style 11" pivot="0" count="2" xr9:uid="{D45F5814-1E43-4991-BE3E-4A336DAE9280}">
       <tableStyleElement type="firstRowStripe" dxfId="257"/>
       <tableStyleElement type="secondRowStripe" dxfId="256"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{4BB14C7D-9E43-4ACD-8028-DCD2768B0543}">
+    <tableStyle name="Jul 28 - Aug 3-style 12" pivot="0" count="2" xr9:uid="{AAB9BCFD-1705-4A94-8A88-AF5C62E8762A}">
       <tableStyleElement type="firstRowStripe" dxfId="259"/>
       <tableStyleElement type="secondRowStripe" dxfId="258"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{0DF42686-58E2-4882-914F-61DD01C301AC}">
+    <tableStyle name="Jul 28 - Aug 3-style 31" pivot="0" count="2" xr9:uid="{3CE483CC-E4ED-48A1-9A91-3139070E8E45}">
       <tableStyleElement type="firstRowStripe" dxfId="261"/>
       <tableStyleElement type="secondRowStripe" dxfId="260"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{B8D98A20-7693-4929-98A0-41585BFF429E}">
+    <tableStyle name="Jul 28 - Aug 3-style 37" pivot="0" count="2" xr9:uid="{1735C43F-DB72-4A65-A386-CA5295846DDF}">
       <tableStyleElement type="firstRowStripe" dxfId="263"/>
       <tableStyleElement type="secondRowStripe" dxfId="262"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{A01F080A-2174-4539-BBED-30E8AD548092}">
+    <tableStyle name="Jul 28 - Aug 3-style 2" pivot="0" count="2" xr9:uid="{FFEB9177-4EFB-4069-A5DC-98F255C09B83}">
       <tableStyleElement type="firstRowStripe" dxfId="265"/>
       <tableStyleElement type="secondRowStripe" dxfId="264"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{0231E4A3-B01E-4FAE-80E9-2A79E0A33E23}">
+    <tableStyle name="Jul 28 - Aug 3-style 9" pivot="0" count="2" xr9:uid="{D28A24CA-7B8D-4991-B265-883DFC1DD138}">
       <tableStyleElement type="firstRowStripe" dxfId="267"/>
       <tableStyleElement type="secondRowStripe" dxfId="266"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{7D2C0671-B51E-4786-A9B1-4615D5ED4114}">
+    <tableStyle name="Jul 28 - Aug 3-style 32" pivot="0" count="2" xr9:uid="{D6C25CBC-5FB0-4534-874F-C486E867C52E}">
       <tableStyleElement type="firstRowStripe" dxfId="269"/>
       <tableStyleElement type="secondRowStripe" dxfId="268"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{0C2875E8-2960-4211-82F1-A4E5E86C6DEB}">
+    <tableStyle name="Jul 28 - Aug 3-style 33" pivot="0" count="2" xr9:uid="{2F68729C-B18C-4031-B3F7-057492C69EC2}">
       <tableStyleElement type="firstRowStripe" dxfId="271"/>
       <tableStyleElement type="secondRowStripe" dxfId="270"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{D5247B30-9C30-4F00-A9EE-20CA3CB1D487}">
+    <tableStyle name="Jul 28 - Aug 3-style 35" pivot="0" count="2" xr9:uid="{2B8366EB-8265-4508-9C3D-9314FF9C5AEF}">
       <tableStyleElement type="firstRowStripe" dxfId="273"/>
       <tableStyleElement type="secondRowStripe" dxfId="272"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{5AA7B4B9-7AE1-4F42-9D60-0680866BF11E}">
+    <tableStyle name="Jul 28 - Aug 3-style 38" pivot="0" count="2" xr9:uid="{1E55F639-EC68-4935-839B-64F925275067}">
       <tableStyleElement type="firstRowStripe" dxfId="275"/>
       <tableStyleElement type="secondRowStripe" dxfId="274"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{3458BA8A-7A3B-4C5B-8256-47F5A551259B}">
+    <tableStyle name="Jul 28 - Aug 3-style 39" pivot="0" count="2" xr9:uid="{155DBD66-69B6-4657-ABBE-35009FF540D0}">
       <tableStyleElement type="firstRowStripe" dxfId="277"/>
       <tableStyleElement type="secondRowStripe" dxfId="276"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{9E42185A-2978-4270-94D9-33B79864852B}">
+    <tableStyle name="Jul 28 - Aug 3-style 16" pivot="0" count="2" xr9:uid="{45EFEB5B-776E-4AF1-8C17-CF951DAF45DF}">
       <tableStyleElement type="firstRowStripe" dxfId="279"/>
       <tableStyleElement type="secondRowStripe" dxfId="278"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{B04806CD-ACC5-4648-851D-1ACC9EEEF347}">
+    <tableStyle name="Jul 28 - Aug 3-style 28" pivot="0" count="2" xr9:uid="{8F667C44-9F0F-4E03-A177-1F021A08FD56}">
       <tableStyleElement type="firstRowStripe" dxfId="281"/>
       <tableStyleElement type="secondRowStripe" dxfId="280"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{0445537C-3916-47CE-9576-C426A3AD35A0}">
+    <tableStyle name="Jul 28 - Aug 3-style 29" pivot="0" count="2" xr9:uid="{DE3E97E4-AFF2-4748-BCB8-60DB630A1AEA}">
       <tableStyleElement type="firstRowStripe" dxfId="283"/>
       <tableStyleElement type="secondRowStripe" dxfId="282"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{DAE93059-AD43-4D07-A54A-88ACCCA095D1}">
+    <tableStyle name="Jul 28 - Aug 3-style 30" pivot="0" count="2" xr9:uid="{F085CFD3-063C-4C0D-9FD5-13ED3D814BF9}">
       <tableStyleElement type="firstRowStripe" dxfId="285"/>
       <tableStyleElement type="secondRowStripe" dxfId="284"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{680D1DC8-E4DB-4975-BB9C-82C325DA5986}">
+    <tableStyle name="Jul 28 - Aug 3-style 17" pivot="0" count="2" xr9:uid="{4E369339-9678-4CD6-86CB-5C745AEB7881}">
       <tableStyleElement type="firstRowStripe" dxfId="287"/>
       <tableStyleElement type="secondRowStripe" dxfId="286"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{805795DA-4DA1-448C-A9AD-37BE1DFB9867}">
+    <tableStyle name="Jul 28 - Aug 3-style 27" pivot="0" count="2" xr9:uid="{14CE808D-EA6A-49D3-B6F0-9BC871450DA6}">
       <tableStyleElement type="firstRowStripe" dxfId="289"/>
       <tableStyleElement type="secondRowStripe" dxfId="288"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{2F49EB98-05F8-4DBD-A88A-D272A0D1E185}">
+    <tableStyle name="Jul 28 - Aug 3-style 45" pivot="0" count="2" xr9:uid="{36D63795-0FDD-41FF-8277-11E5E0B8A74F}">
       <tableStyleElement type="firstRowStripe" dxfId="291"/>
       <tableStyleElement type="secondRowStripe" dxfId="290"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{B8A428CE-2A17-40B1-B11D-0C479A4C6907}">
+    <tableStyle name="Jul 28 - Aug 3-style 48" pivot="0" count="2" xr9:uid="{6A36CBE7-3A71-4E57-9FFB-FCC7ACFDB891}">
       <tableStyleElement type="firstRowStripe" dxfId="293"/>
       <tableStyleElement type="secondRowStripe" dxfId="292"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{BF90BF00-2950-4E0E-8B7A-A64DB48D087B}">
+    <tableStyle name="Jul 28 - Aug 3-style 44" pivot="0" count="2" xr9:uid="{25F180A3-2BA6-4819-891A-B3C6C01D305F}">
       <tableStyleElement type="firstRowStripe" dxfId="295"/>
       <tableStyleElement type="secondRowStripe" dxfId="294"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{D802DF3E-B888-42EA-AB8D-50034BE9809B}">
+    <tableStyle name="Jul 28 - Aug 3-style 46" pivot="0" count="2" xr9:uid="{B87F0868-C689-4ECE-A038-EA50A12D0C17}">
       <tableStyleElement type="firstRowStripe" dxfId="297"/>
       <tableStyleElement type="secondRowStripe" dxfId="296"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{6853DB86-3205-43C5-A0E2-B2C5EA52E23C}">
+    <tableStyle name="Jul 28 - Aug 3-style 47" pivot="0" count="2" xr9:uid="{8CF6C229-2425-4A51-8A41-9C8D3D7630E1}">
       <tableStyleElement type="firstRowStripe" dxfId="299"/>
       <tableStyleElement type="secondRowStripe" dxfId="298"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{99A5D7E7-D411-4E9F-AC3F-988F38806032}">
+    <tableStyle name="Jul 28 - Aug 3-style 49" pivot="0" count="2" xr9:uid="{D5CF5A00-5ABD-49A3-B690-553DBB1BA1D7}">
       <tableStyleElement type="firstRowStripe" dxfId="301"/>
       <tableStyleElement type="secondRowStripe" dxfId="300"/>
     </tableStyle>
-    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{D44547AA-66D5-4027-A125-78C137CD10F1}">
+    <tableStyle name="Jul 28 - Aug 3-style 50" pivot="0" count="2" xr9:uid="{464F116E-269A-4BE7-B03F-5E5B3176FEB6}">
       <tableStyleElement type="firstRowStripe" dxfId="303"/>
       <tableStyleElement type="secondRowStripe" dxfId="302"/>
     </tableStyle>
@@ -6577,9 +6589,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG807"/>
+  <dimension ref="A1:AG808"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
@@ -22168,8 +22180,8 @@
       <c r="B346" s="14">
         <v>0.541666666666667</v>
       </c>
-      <c r="C346" s="14">
-        <v>0.916666666666667</v>
+      <c r="C346" s="23">
+        <v>0.0416666666666667</v>
       </c>
       <c r="D346" s="15">
         <v>1102766064</v>
@@ -30506,13 +30518,13 @@
       <c r="A523" s="9">
         <v>0.625</v>
       </c>
-      <c r="B523" s="23"/>
-      <c r="C523" s="23"/>
-      <c r="D523" s="23"/>
-      <c r="E523" s="24"/>
-      <c r="F523" s="23"/>
-      <c r="G523" s="23"/>
-      <c r="H523" s="23"/>
+      <c r="B523" s="24"/>
+      <c r="C523" s="24"/>
+      <c r="D523" s="24"/>
+      <c r="E523" s="25"/>
+      <c r="F523" s="24"/>
+      <c r="G523" s="24"/>
+      <c r="H523" s="24"/>
       <c r="I523" s="20"/>
       <c r="J523" s="19"/>
       <c r="K523" s="18"/>
@@ -31012,13 +31024,13 @@
     </row>
     <row r="535" ht="48.75" customHeight="1" spans="1:33">
       <c r="A535" s="6"/>
-      <c r="B535" s="25"/>
-      <c r="C535" s="25"/>
-      <c r="D535" s="26"/>
+      <c r="B535" s="26"/>
+      <c r="C535" s="26"/>
+      <c r="D535" s="27"/>
       <c r="E535" s="16"/>
-      <c r="F535" s="26"/>
-      <c r="G535" s="26"/>
-      <c r="H535" s="26"/>
+      <c r="F535" s="27"/>
+      <c r="G535" s="27"/>
+      <c r="H535" s="27"/>
       <c r="I535" s="20"/>
       <c r="J535" s="19"/>
       <c r="K535" s="18"/>
@@ -31047,25 +31059,25 @@
     </row>
     <row r="536" ht="48.75" customHeight="1" spans="1:33">
       <c r="A536" s="6"/>
-      <c r="B536" s="25">
+      <c r="B536" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C536" s="25">
+      <c r="C536" s="26">
         <v>0</v>
       </c>
-      <c r="D536" s="26">
+      <c r="D536" s="27">
         <v>1001473220</v>
       </c>
       <c r="E536" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F536" s="26" t="s">
+      <c r="F536" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="G536" s="26" t="s">
+      <c r="G536" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="H536" s="26" t="s">
+      <c r="H536" s="27" t="s">
         <v>551</v>
       </c>
       <c r="I536" s="20"/>
@@ -31096,25 +31108,25 @@
     </row>
     <row r="537" ht="48.75" customHeight="1" spans="1:33">
       <c r="A537" s="6"/>
-      <c r="B537" s="25">
+      <c r="B537" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C537" s="25">
+      <c r="C537" s="26">
         <v>0</v>
       </c>
-      <c r="D537" s="26">
+      <c r="D537" s="27">
         <v>1069441222</v>
       </c>
       <c r="E537" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F537" s="26" t="s">
+      <c r="F537" s="27" t="s">
         <v>552</v>
       </c>
-      <c r="G537" s="26" t="s">
+      <c r="G537" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="H537" s="26" t="s">
+      <c r="H537" s="27" t="s">
         <v>551</v>
       </c>
       <c r="I537" s="20"/>
@@ -31145,25 +31157,25 @@
     </row>
     <row r="538" ht="48.75" customHeight="1" spans="1:33">
       <c r="A538" s="6"/>
-      <c r="B538" s="25">
+      <c r="B538" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C538" s="25">
+      <c r="C538" s="26">
         <v>0</v>
       </c>
-      <c r="D538" s="26">
+      <c r="D538" s="27">
         <v>1109165438</v>
       </c>
       <c r="E538" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F538" s="26" t="s">
+      <c r="F538" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="G538" s="26" t="s">
+      <c r="G538" s="27" t="s">
         <v>551</v>
       </c>
-      <c r="H538" s="26" t="s">
+      <c r="H538" s="27" t="s">
         <v>551</v>
       </c>
       <c r="I538" s="20"/>
@@ -31194,13 +31206,13 @@
     </row>
     <row r="539" ht="48.75" customHeight="1" spans="1:33">
       <c r="A539" s="6"/>
-      <c r="B539" s="25"/>
-      <c r="C539" s="25"/>
-      <c r="D539" s="26"/>
+      <c r="B539" s="26"/>
+      <c r="C539" s="26"/>
+      <c r="D539" s="27"/>
       <c r="E539" s="16"/>
-      <c r="F539" s="26"/>
-      <c r="G539" s="26"/>
-      <c r="H539" s="26"/>
+      <c r="F539" s="27"/>
+      <c r="G539" s="27"/>
+      <c r="H539" s="27"/>
       <c r="I539" s="20"/>
       <c r="J539" s="19"/>
       <c r="K539" s="18"/>
@@ -31229,25 +31241,25 @@
     </row>
     <row r="540" ht="48.75" customHeight="1" spans="1:33">
       <c r="A540" s="6"/>
-      <c r="B540" s="25">
+      <c r="B540" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C540" s="25">
+      <c r="C540" s="26">
         <v>0</v>
       </c>
-      <c r="D540" s="26">
+      <c r="D540" s="27">
         <v>1144129655</v>
       </c>
       <c r="E540" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F540" s="26" t="s">
+      <c r="F540" s="27" t="s">
         <v>554</v>
       </c>
-      <c r="G540" s="26" t="s">
+      <c r="G540" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H540" s="26" t="s">
+      <c r="H540" s="27" t="s">
         <v>23</v>
       </c>
       <c r="I540" s="20"/>
@@ -31278,13 +31290,13 @@
     </row>
     <row r="541" ht="48.75" customHeight="1" spans="1:33">
       <c r="A541" s="6"/>
-      <c r="B541" s="25"/>
-      <c r="C541" s="25"/>
-      <c r="D541" s="26"/>
+      <c r="B541" s="26"/>
+      <c r="C541" s="26"/>
+      <c r="D541" s="27"/>
       <c r="E541" s="16"/>
-      <c r="F541" s="26"/>
-      <c r="G541" s="26"/>
-      <c r="H541" s="26"/>
+      <c r="F541" s="27"/>
+      <c r="G541" s="27"/>
+      <c r="H541" s="27"/>
       <c r="I541" s="20"/>
       <c r="J541" s="19"/>
       <c r="K541" s="18"/>
@@ -31313,25 +31325,25 @@
     </row>
     <row r="542" ht="48.75" customHeight="1" spans="1:33">
       <c r="A542" s="6"/>
-      <c r="B542" s="25">
+      <c r="B542" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C542" s="25">
+      <c r="C542" s="26">
         <v>0</v>
       </c>
-      <c r="D542" s="26">
+      <c r="D542" s="27">
         <v>1099307472</v>
       </c>
       <c r="E542" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F542" s="26" t="s">
+      <c r="F542" s="27" t="s">
         <v>555</v>
       </c>
-      <c r="G542" s="26" t="s">
+      <c r="G542" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H542" s="26" t="s">
+      <c r="H542" s="27" t="s">
         <v>556</v>
       </c>
       <c r="I542" s="20"/>
@@ -31362,25 +31374,25 @@
     </row>
     <row r="543" ht="48.75" customHeight="1" spans="1:33">
       <c r="A543" s="6"/>
-      <c r="B543" s="25">
+      <c r="B543" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C543" s="25">
+      <c r="C543" s="26">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D543" s="26">
+      <c r="D543" s="27">
         <v>1117773717</v>
       </c>
       <c r="E543" s="16">
         <v>10331810</v>
       </c>
-      <c r="F543" s="26" t="s">
+      <c r="F543" s="27" t="s">
         <v>557</v>
       </c>
-      <c r="G543" s="26" t="s">
+      <c r="G543" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H543" s="26" t="s">
+      <c r="H543" s="27" t="s">
         <v>50</v>
       </c>
       <c r="I543" s="20"/>
@@ -31462,13 +31474,13 @@
     </row>
     <row r="545" ht="48.75" customHeight="1" spans="1:33">
       <c r="A545" s="6"/>
-      <c r="B545" s="25"/>
-      <c r="C545" s="25"/>
-      <c r="D545" s="26"/>
+      <c r="B545" s="26"/>
+      <c r="C545" s="26"/>
+      <c r="D545" s="27"/>
       <c r="E545" s="16"/>
-      <c r="F545" s="26"/>
-      <c r="G545" s="26"/>
-      <c r="H545" s="26"/>
+      <c r="F545" s="27"/>
+      <c r="G545" s="27"/>
+      <c r="H545" s="27"/>
       <c r="I545" s="20"/>
       <c r="J545" s="19"/>
       <c r="K545" s="18"/>
@@ -31497,25 +31509,25 @@
     </row>
     <row r="546" ht="48.75" customHeight="1" spans="1:33">
       <c r="A546" s="6"/>
-      <c r="B546" s="25">
+      <c r="B546" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C546" s="25">
+      <c r="C546" s="26">
         <v>0.125</v>
       </c>
-      <c r="D546" s="26" t="s">
+      <c r="D546" s="27" t="s">
         <v>560</v>
       </c>
       <c r="E546" s="16">
         <v>10329910</v>
       </c>
-      <c r="F546" s="26" t="s">
+      <c r="F546" s="27" t="s">
         <v>561</v>
       </c>
-      <c r="G546" s="26" t="s">
+      <c r="G546" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="H546" s="26" t="s">
+      <c r="H546" s="27" t="s">
         <v>31</v>
       </c>
       <c r="I546" s="20"/>
@@ -31546,13 +31558,13 @@
     </row>
     <row r="547" ht="48.75" customHeight="1" spans="1:33">
       <c r="A547" s="6"/>
-      <c r="B547" s="25"/>
-      <c r="C547" s="25"/>
-      <c r="D547" s="26"/>
+      <c r="B547" s="26"/>
+      <c r="C547" s="26"/>
+      <c r="D547" s="27"/>
       <c r="E547" s="16"/>
-      <c r="F547" s="26"/>
-      <c r="G547" s="26"/>
-      <c r="H547" s="26"/>
+      <c r="F547" s="27"/>
+      <c r="G547" s="27"/>
+      <c r="H547" s="27"/>
       <c r="I547" s="20"/>
       <c r="J547" s="19"/>
       <c r="K547" s="18"/>
@@ -31581,25 +31593,25 @@
     </row>
     <row r="548" ht="48.75" customHeight="1" spans="1:33">
       <c r="A548" s="6"/>
-      <c r="B548" s="25">
+      <c r="B548" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C548" s="25">
+      <c r="C548" s="26">
         <v>0</v>
       </c>
-      <c r="D548" s="26">
+      <c r="D548" s="27">
         <v>1003336191</v>
       </c>
       <c r="E548" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F548" s="26" t="s">
+      <c r="F548" s="27" t="s">
         <v>562</v>
       </c>
-      <c r="G548" s="26" t="s">
+      <c r="G548" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H548" s="26" t="s">
+      <c r="H548" s="27" t="s">
         <v>110</v>
       </c>
       <c r="I548" s="20"/>
@@ -31630,25 +31642,25 @@
     </row>
     <row r="549" ht="48.75" customHeight="1" spans="1:33">
       <c r="A549" s="6"/>
-      <c r="B549" s="25">
+      <c r="B549" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C549" s="25">
+      <c r="C549" s="26">
         <v>0</v>
       </c>
-      <c r="D549" s="26">
+      <c r="D549" s="27">
         <v>1018382231</v>
       </c>
       <c r="E549" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F549" s="26" t="s">
+      <c r="F549" s="27" t="s">
         <v>563</v>
       </c>
-      <c r="G549" s="26" t="s">
+      <c r="G549" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H549" s="26" t="s">
+      <c r="H549" s="27" t="s">
         <v>9</v>
       </c>
       <c r="I549" s="20"/>
@@ -31679,25 +31691,25 @@
     </row>
     <row r="550" ht="48.75" customHeight="1" spans="1:33">
       <c r="A550" s="6"/>
-      <c r="B550" s="25">
+      <c r="B550" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C550" s="25">
+      <c r="C550" s="26">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D550" s="26">
+      <c r="D550" s="27">
         <v>1550752064</v>
       </c>
       <c r="E550" s="16">
         <v>10260539</v>
       </c>
-      <c r="F550" s="26" t="s">
+      <c r="F550" s="27" t="s">
         <v>564</v>
       </c>
-      <c r="G550" s="26" t="s">
+      <c r="G550" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H550" s="26" t="s">
+      <c r="H550" s="27" t="s">
         <v>110</v>
       </c>
       <c r="I550" s="20"/>
@@ -31728,13 +31740,13 @@
     </row>
     <row r="551" ht="48.75" customHeight="1" spans="1:33">
       <c r="A551" s="6"/>
-      <c r="B551" s="25"/>
-      <c r="C551" s="25"/>
-      <c r="D551" s="26"/>
+      <c r="B551" s="26"/>
+      <c r="C551" s="26"/>
+      <c r="D551" s="27"/>
       <c r="E551" s="16"/>
-      <c r="F551" s="26"/>
-      <c r="G551" s="26"/>
-      <c r="H551" s="26"/>
+      <c r="F551" s="27"/>
+      <c r="G551" s="27"/>
+      <c r="H551" s="27"/>
       <c r="I551" s="20"/>
       <c r="J551" s="19"/>
       <c r="K551" s="18"/>
@@ -31814,13 +31826,13 @@
     </row>
     <row r="553" ht="48.75" customHeight="1" spans="1:33">
       <c r="A553" s="6"/>
-      <c r="B553" s="25"/>
-      <c r="C553" s="25"/>
-      <c r="D553" s="26"/>
+      <c r="B553" s="26"/>
+      <c r="C553" s="26"/>
+      <c r="D553" s="27"/>
       <c r="E553" s="16"/>
-      <c r="F553" s="26"/>
-      <c r="G553" s="26"/>
-      <c r="H553" s="26"/>
+      <c r="F553" s="27"/>
+      <c r="G553" s="27"/>
+      <c r="H553" s="27"/>
       <c r="I553" s="20"/>
       <c r="J553" s="19"/>
       <c r="K553" s="18"/>
@@ -31849,25 +31861,25 @@
     </row>
     <row r="554" ht="48.75" customHeight="1" spans="1:33">
       <c r="A554" s="6"/>
-      <c r="B554" s="25">
+      <c r="B554" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C554" s="25">
+      <c r="C554" s="26">
         <v>0</v>
       </c>
-      <c r="D554" s="26">
+      <c r="D554" s="27">
         <v>1121670258</v>
       </c>
       <c r="E554" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F554" s="26" t="s">
+      <c r="F554" s="27" t="s">
         <v>566</v>
       </c>
-      <c r="G554" s="26" t="s">
+      <c r="G554" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="H554" s="26" t="s">
+      <c r="H554" s="27" t="s">
         <v>567</v>
       </c>
       <c r="I554" s="20"/>
@@ -31898,13 +31910,13 @@
     </row>
     <row r="555" ht="48.75" customHeight="1" spans="1:33">
       <c r="A555" s="6"/>
-      <c r="B555" s="25"/>
-      <c r="C555" s="25"/>
-      <c r="D555" s="26"/>
+      <c r="B555" s="26"/>
+      <c r="C555" s="26"/>
+      <c r="D555" s="27"/>
       <c r="E555" s="16"/>
-      <c r="F555" s="26"/>
-      <c r="G555" s="26"/>
-      <c r="H555" s="26"/>
+      <c r="F555" s="27"/>
+      <c r="G555" s="27"/>
+      <c r="H555" s="27"/>
       <c r="I555" s="20"/>
       <c r="J555" s="19"/>
       <c r="K555" s="18"/>
@@ -31933,25 +31945,25 @@
     </row>
     <row r="556" ht="48.75" customHeight="1" spans="1:33">
       <c r="A556" s="6"/>
-      <c r="B556" s="25">
+      <c r="B556" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C556" s="25">
+      <c r="C556" s="26">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D556" s="26">
+      <c r="D556" s="27">
         <v>1142234058</v>
       </c>
       <c r="E556" s="16">
         <v>10325898</v>
       </c>
-      <c r="F556" s="26" t="s">
+      <c r="F556" s="27" t="s">
         <v>568</v>
       </c>
-      <c r="G556" s="26" t="s">
+      <c r="G556" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H556" s="26" t="s">
+      <c r="H556" s="27" t="s">
         <v>569</v>
       </c>
       <c r="I556" s="20"/>
@@ -31982,25 +31994,25 @@
     </row>
     <row r="557" ht="48.75" customHeight="1" spans="1:33">
       <c r="A557" s="6"/>
-      <c r="B557" s="25">
+      <c r="B557" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C557" s="25">
+      <c r="C557" s="26">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D557" s="26">
+      <c r="D557" s="27">
         <v>1126050575</v>
       </c>
       <c r="E557" s="16">
         <v>10295622</v>
       </c>
-      <c r="F557" s="26" t="s">
+      <c r="F557" s="27" t="s">
         <v>570</v>
       </c>
-      <c r="G557" s="26" t="s">
+      <c r="G557" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="H557" s="26" t="s">
+      <c r="H557" s="27" t="s">
         <v>141</v>
       </c>
       <c r="I557" s="20"/>
@@ -32184,13 +32196,13 @@
     </row>
     <row r="561" ht="48.75" customHeight="1" spans="1:33">
       <c r="A561" s="6"/>
-      <c r="B561" s="25"/>
-      <c r="C561" s="25"/>
-      <c r="D561" s="26"/>
+      <c r="B561" s="26"/>
+      <c r="C561" s="26"/>
+      <c r="D561" s="27"/>
       <c r="E561" s="16"/>
-      <c r="F561" s="26"/>
-      <c r="G561" s="26"/>
-      <c r="H561" s="26"/>
+      <c r="F561" s="27"/>
+      <c r="G561" s="27"/>
+      <c r="H561" s="27"/>
       <c r="I561" s="20"/>
       <c r="J561" s="19"/>
       <c r="K561" s="18"/>
@@ -32219,25 +32231,25 @@
     </row>
     <row r="562" ht="48.75" customHeight="1" spans="1:33">
       <c r="A562" s="6"/>
-      <c r="B562" s="25">
+      <c r="B562" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C562" s="25">
+      <c r="C562" s="26">
         <v>0.166666666666667</v>
       </c>
-      <c r="D562" s="26" t="s">
+      <c r="D562" s="27" t="s">
         <v>575</v>
       </c>
       <c r="E562" s="16">
         <v>10329382</v>
       </c>
-      <c r="F562" s="26" t="s">
+      <c r="F562" s="27" t="s">
         <v>576</v>
       </c>
-      <c r="G562" s="26" t="s">
+      <c r="G562" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="H562" s="26" t="s">
+      <c r="H562" s="27" t="s">
         <v>577</v>
       </c>
       <c r="I562" s="20"/>
@@ -32319,13 +32331,13 @@
     </row>
     <row r="564" ht="48.75" customHeight="1" spans="1:33">
       <c r="A564" s="6"/>
-      <c r="B564" s="25"/>
-      <c r="C564" s="25"/>
-      <c r="D564" s="26"/>
+      <c r="B564" s="26"/>
+      <c r="C564" s="26"/>
+      <c r="D564" s="27"/>
       <c r="E564" s="16"/>
-      <c r="F564" s="26"/>
-      <c r="G564" s="26"/>
-      <c r="H564" s="26"/>
+      <c r="F564" s="27"/>
+      <c r="G564" s="27"/>
+      <c r="H564" s="27"/>
       <c r="I564" s="20"/>
       <c r="J564" s="19"/>
       <c r="K564" s="18"/>
@@ -32354,25 +32366,25 @@
     </row>
     <row r="565" ht="48.75" customHeight="1" spans="1:33">
       <c r="A565" s="6"/>
-      <c r="B565" s="25">
+      <c r="B565" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C565" s="25">
+      <c r="C565" s="26">
         <v>0</v>
       </c>
-      <c r="D565" s="26" t="s">
+      <c r="D565" s="27" t="s">
         <v>580</v>
       </c>
       <c r="E565" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F565" s="26" t="s">
+      <c r="F565" s="27" t="s">
         <v>581</v>
       </c>
-      <c r="G565" s="26" t="s">
+      <c r="G565" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="H565" s="26" t="s">
+      <c r="H565" s="27" t="s">
         <v>162</v>
       </c>
       <c r="I565" s="20"/>
@@ -32403,13 +32415,13 @@
     </row>
     <row r="566" ht="48.75" customHeight="1" spans="1:33">
       <c r="A566" s="6"/>
-      <c r="B566" s="25"/>
-      <c r="C566" s="25"/>
-      <c r="D566" s="26"/>
+      <c r="B566" s="26"/>
+      <c r="C566" s="26"/>
+      <c r="D566" s="27"/>
       <c r="E566" s="16"/>
-      <c r="F566" s="26"/>
-      <c r="G566" s="26"/>
-      <c r="H566" s="26"/>
+      <c r="F566" s="27"/>
+      <c r="G566" s="27"/>
+      <c r="H566" s="27"/>
       <c r="I566" s="20"/>
       <c r="J566" s="19"/>
       <c r="K566" s="18"/>
@@ -32438,25 +32450,25 @@
     </row>
     <row r="567" ht="48.75" customHeight="1" spans="1:33">
       <c r="A567" s="6"/>
-      <c r="B567" s="25">
+      <c r="B567" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C567" s="25">
+      <c r="C567" s="26">
         <v>0</v>
       </c>
-      <c r="D567" s="26">
+      <c r="D567" s="27">
         <v>1026170107</v>
       </c>
       <c r="E567" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F567" s="26" t="s">
+      <c r="F567" s="27" t="s">
         <v>582</v>
       </c>
-      <c r="G567" s="26" t="s">
+      <c r="G567" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H567" s="26" t="s">
+      <c r="H567" s="27" t="s">
         <v>583</v>
       </c>
       <c r="I567" s="20"/>
@@ -32487,25 +32499,25 @@
     </row>
     <row r="568" ht="48.75" customHeight="1" spans="1:33">
       <c r="A568" s="6"/>
-      <c r="B568" s="25">
+      <c r="B568" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C568" s="25">
+      <c r="C568" s="26">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D568" s="26">
+      <c r="D568" s="27">
         <v>1551707019</v>
       </c>
       <c r="E568" s="16">
         <v>10331829</v>
       </c>
-      <c r="F568" s="26" t="s">
+      <c r="F568" s="27" t="s">
         <v>584</v>
       </c>
-      <c r="G568" s="26" t="s">
+      <c r="G568" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H568" s="26" t="s">
+      <c r="H568" s="27" t="s">
         <v>170</v>
       </c>
       <c r="I568" s="20"/>
@@ -32587,13 +32599,13 @@
     </row>
     <row r="570" ht="48.75" customHeight="1" spans="1:33">
       <c r="A570" s="6"/>
-      <c r="B570" s="25"/>
-      <c r="C570" s="25"/>
-      <c r="D570" s="26"/>
+      <c r="B570" s="26"/>
+      <c r="C570" s="26"/>
+      <c r="D570" s="27"/>
       <c r="E570" s="16"/>
-      <c r="F570" s="26"/>
-      <c r="G570" s="26"/>
-      <c r="H570" s="26"/>
+      <c r="F570" s="27"/>
+      <c r="G570" s="27"/>
+      <c r="H570" s="27"/>
       <c r="I570" s="20"/>
       <c r="J570" s="19"/>
       <c r="K570" s="18"/>
@@ -32622,25 +32634,25 @@
     </row>
     <row r="571" ht="48.75" customHeight="1" spans="1:33">
       <c r="A571" s="6"/>
-      <c r="B571" s="25">
+      <c r="B571" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C571" s="25">
+      <c r="C571" s="26">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D571" s="26">
+      <c r="D571" s="27">
         <v>1002924890</v>
       </c>
       <c r="E571" s="16">
         <v>10330597</v>
       </c>
-      <c r="F571" s="26" t="s">
+      <c r="F571" s="27" t="s">
         <v>587</v>
       </c>
-      <c r="G571" s="26" t="s">
+      <c r="G571" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="H571" s="26" t="s">
+      <c r="H571" s="27" t="s">
         <v>189</v>
       </c>
       <c r="I571" s="20"/>
@@ -32671,13 +32683,13 @@
     </row>
     <row r="572" ht="48.75" customHeight="1" spans="1:33">
       <c r="A572" s="6"/>
-      <c r="B572" s="25"/>
-      <c r="C572" s="25"/>
-      <c r="D572" s="26"/>
+      <c r="B572" s="26"/>
+      <c r="C572" s="26"/>
+      <c r="D572" s="27"/>
       <c r="E572" s="16"/>
-      <c r="F572" s="26"/>
-      <c r="G572" s="26"/>
-      <c r="H572" s="26"/>
+      <c r="F572" s="27"/>
+      <c r="G572" s="27"/>
+      <c r="H572" s="27"/>
       <c r="I572" s="20"/>
       <c r="J572" s="19"/>
       <c r="K572" s="18"/>
@@ -32706,25 +32718,25 @@
     </row>
     <row r="573" ht="48.75" customHeight="1" spans="1:33">
       <c r="A573" s="6"/>
-      <c r="B573" s="25">
+      <c r="B573" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C573" s="25">
+      <c r="C573" s="26">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D573" s="26">
+      <c r="D573" s="27">
         <v>1030283695</v>
       </c>
       <c r="E573" s="16">
         <v>10305646</v>
       </c>
-      <c r="F573" s="26" t="s">
+      <c r="F573" s="27" t="s">
         <v>588</v>
       </c>
-      <c r="G573" s="26" t="s">
+      <c r="G573" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="H573" s="26" t="s">
+      <c r="H573" s="27" t="s">
         <v>203</v>
       </c>
       <c r="I573" s="20"/>
@@ -32857,13 +32869,13 @@
     </row>
     <row r="576" ht="48.75" customHeight="1" spans="1:33">
       <c r="A576" s="6"/>
-      <c r="B576" s="25"/>
-      <c r="C576" s="25"/>
-      <c r="D576" s="26"/>
+      <c r="B576" s="26"/>
+      <c r="C576" s="26"/>
+      <c r="D576" s="27"/>
       <c r="E576" s="16"/>
-      <c r="F576" s="26"/>
-      <c r="G576" s="26"/>
-      <c r="H576" s="26"/>
+      <c r="F576" s="27"/>
+      <c r="G576" s="27"/>
+      <c r="H576" s="27"/>
       <c r="I576" s="20"/>
       <c r="J576" s="19"/>
       <c r="K576" s="18"/>
@@ -32892,25 +32904,25 @@
     </row>
     <row r="577" ht="48.75" customHeight="1" spans="1:33">
       <c r="A577" s="6"/>
-      <c r="B577" s="25">
+      <c r="B577" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C577" s="25">
+      <c r="C577" s="26">
         <v>0</v>
       </c>
-      <c r="D577" s="26">
+      <c r="D577" s="27">
         <v>1109165438</v>
       </c>
       <c r="E577" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F577" s="26" t="s">
+      <c r="F577" s="27" t="s">
         <v>553</v>
       </c>
-      <c r="G577" s="26" t="s">
+      <c r="G577" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H577" s="26" t="s">
+      <c r="H577" s="27" t="s">
         <v>209</v>
       </c>
       <c r="I577" s="20"/>
@@ -32941,25 +32953,25 @@
     </row>
     <row r="578" ht="48.75" customHeight="1" spans="1:33">
       <c r="A578" s="6"/>
-      <c r="B578" s="25">
+      <c r="B578" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C578" s="25">
+      <c r="C578" s="26">
         <v>0</v>
       </c>
-      <c r="D578" s="26">
+      <c r="D578" s="27">
         <v>1017913776</v>
       </c>
       <c r="E578" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F578" s="26" t="s">
+      <c r="F578" s="27" t="s">
         <v>594</v>
       </c>
-      <c r="G578" s="26" t="s">
+      <c r="G578" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H578" s="26" t="s">
+      <c r="H578" s="27" t="s">
         <v>209</v>
       </c>
       <c r="I578" s="20"/>
@@ -32990,25 +33002,25 @@
     </row>
     <row r="579" ht="48.75" customHeight="1" spans="1:33">
       <c r="A579" s="6"/>
-      <c r="B579" s="25">
+      <c r="B579" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C579" s="25">
+      <c r="C579" s="26">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D579" s="26" t="s">
+      <c r="D579" s="27" t="s">
         <v>595</v>
       </c>
       <c r="E579" s="16">
         <v>10333436</v>
       </c>
-      <c r="F579" s="26" t="s">
+      <c r="F579" s="27" t="s">
         <v>596</v>
       </c>
-      <c r="G579" s="26" t="s">
+      <c r="G579" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H579" s="26" t="s">
+      <c r="H579" s="27" t="s">
         <v>65</v>
       </c>
       <c r="I579" s="20"/>
@@ -33039,25 +33051,25 @@
     </row>
     <row r="580" ht="48.75" customHeight="1" spans="1:33">
       <c r="A580" s="6"/>
-      <c r="B580" s="25">
+      <c r="B580" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C580" s="25">
+      <c r="C580" s="26">
         <v>0.0416666666666667</v>
       </c>
-      <c r="D580" s="26">
+      <c r="D580" s="27">
         <v>1145486915</v>
       </c>
       <c r="E580" s="16">
         <v>10334370</v>
       </c>
-      <c r="F580" s="26" t="s">
+      <c r="F580" s="27" t="s">
         <v>597</v>
       </c>
-      <c r="G580" s="26" t="s">
+      <c r="G580" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="H580" s="26" t="s">
+      <c r="H580" s="27" t="s">
         <v>286</v>
       </c>
       <c r="I580" s="20"/>
@@ -33088,13 +33100,13 @@
     </row>
     <row r="581" ht="48.75" customHeight="1" spans="1:33">
       <c r="A581" s="6"/>
-      <c r="B581" s="25"/>
-      <c r="C581" s="25"/>
-      <c r="D581" s="26"/>
+      <c r="B581" s="26"/>
+      <c r="C581" s="26"/>
+      <c r="D581" s="27"/>
       <c r="E581" s="16"/>
-      <c r="F581" s="26"/>
-      <c r="G581" s="26"/>
-      <c r="H581" s="26"/>
+      <c r="F581" s="27"/>
+      <c r="G581" s="27"/>
+      <c r="H581" s="27"/>
       <c r="I581" s="20"/>
       <c r="J581" s="19"/>
       <c r="K581" s="18"/>
@@ -33123,25 +33135,25 @@
     </row>
     <row r="582" ht="48.75" customHeight="1" spans="1:33">
       <c r="A582" s="6"/>
-      <c r="B582" s="25">
+      <c r="B582" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C582" s="25">
+      <c r="C582" s="26">
         <v>0</v>
       </c>
-      <c r="D582" s="26">
+      <c r="D582" s="27">
         <v>1044608425</v>
       </c>
       <c r="E582" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F582" s="26" t="s">
+      <c r="F582" s="27" t="s">
         <v>598</v>
       </c>
-      <c r="G582" s="26" t="s">
+      <c r="G582" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H582" s="26" t="s">
+      <c r="H582" s="27" t="s">
         <v>17</v>
       </c>
       <c r="I582" s="20"/>
@@ -33172,13 +33184,13 @@
     </row>
     <row r="583" ht="48.75" customHeight="1" spans="1:33">
       <c r="A583" s="6"/>
-      <c r="B583" s="25"/>
-      <c r="C583" s="25"/>
-      <c r="D583" s="26"/>
+      <c r="B583" s="26"/>
+      <c r="C583" s="26"/>
+      <c r="D583" s="27"/>
       <c r="E583" s="16"/>
-      <c r="F583" s="26"/>
-      <c r="G583" s="26"/>
-      <c r="H583" s="26"/>
+      <c r="F583" s="27"/>
+      <c r="G583" s="27"/>
+      <c r="H583" s="27"/>
       <c r="I583" s="20"/>
       <c r="J583" s="19"/>
       <c r="K583" s="18"/>
@@ -33207,25 +33219,25 @@
     </row>
     <row r="584" ht="48.75" customHeight="1" spans="1:33">
       <c r="A584" s="6"/>
-      <c r="B584" s="25">
+      <c r="B584" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C584" s="25">
+      <c r="C584" s="26">
         <v>0</v>
       </c>
-      <c r="D584" s="26" t="s">
+      <c r="D584" s="27" t="s">
         <v>599</v>
       </c>
       <c r="E584" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F584" s="26" t="s">
+      <c r="F584" s="27" t="s">
         <v>600</v>
       </c>
-      <c r="G584" s="26" t="s">
+      <c r="G584" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H584" s="26" t="s">
+      <c r="H584" s="27" t="s">
         <v>243</v>
       </c>
       <c r="I584" s="20"/>
@@ -33256,25 +33268,25 @@
     </row>
     <row r="585" ht="48.75" customHeight="1" spans="1:33">
       <c r="A585" s="6"/>
-      <c r="B585" s="25">
+      <c r="B585" s="26">
         <v>0.666666666666667</v>
       </c>
-      <c r="C585" s="27">
+      <c r="C585" s="28">
         <v>0.333333333333333</v>
       </c>
-      <c r="D585" s="26">
+      <c r="D585" s="27">
         <v>1019578796</v>
       </c>
       <c r="E585" s="16">
         <v>10225636</v>
       </c>
-      <c r="F585" s="26" t="s">
+      <c r="F585" s="27" t="s">
         <v>601</v>
       </c>
-      <c r="G585" s="26" t="s">
+      <c r="G585" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="H585" s="26" t="s">
+      <c r="H585" s="27" t="s">
         <v>48</v>
       </c>
       <c r="I585" s="20"/>
@@ -33356,13 +33368,13 @@
     </row>
     <row r="587" ht="48.75" customHeight="1" spans="1:33">
       <c r="A587" s="6"/>
-      <c r="B587" s="25"/>
-      <c r="C587" s="25"/>
-      <c r="D587" s="26"/>
+      <c r="B587" s="26"/>
+      <c r="C587" s="26"/>
+      <c r="D587" s="27"/>
       <c r="E587" s="16"/>
-      <c r="F587" s="26"/>
-      <c r="G587" s="26"/>
-      <c r="H587" s="26"/>
+      <c r="F587" s="27"/>
+      <c r="G587" s="27"/>
+      <c r="H587" s="27"/>
       <c r="I587" s="20"/>
       <c r="J587" s="19"/>
       <c r="K587" s="18"/>
@@ -33682,13 +33694,13 @@
     </row>
     <row r="595" ht="43.5" customHeight="1" spans="1:33">
       <c r="A595" s="6"/>
-      <c r="B595" s="25"/>
-      <c r="C595" s="25"/>
-      <c r="D595" s="26"/>
+      <c r="B595" s="26"/>
+      <c r="C595" s="26"/>
+      <c r="D595" s="27"/>
       <c r="E595" s="16"/>
-      <c r="F595" s="26"/>
-      <c r="G595" s="26"/>
-      <c r="H595" s="26"/>
+      <c r="F595" s="27"/>
+      <c r="G595" s="27"/>
+      <c r="H595" s="27"/>
       <c r="I595" s="20"/>
       <c r="J595" s="19"/>
       <c r="K595" s="18"/>
@@ -33717,25 +33729,25 @@
     </row>
     <row r="596" ht="43.5" customHeight="1" spans="1:33">
       <c r="A596" s="6"/>
-      <c r="B596" s="25">
+      <c r="B596" s="26">
         <v>0.75</v>
       </c>
-      <c r="C596" s="25">
+      <c r="C596" s="26">
         <v>0.125</v>
       </c>
-      <c r="D596" s="26">
+      <c r="D596" s="27">
         <v>1127261406</v>
       </c>
       <c r="E596" s="16">
         <v>10238619</v>
       </c>
-      <c r="F596" s="26" t="s">
+      <c r="F596" s="27" t="s">
         <v>604</v>
       </c>
-      <c r="G596" s="26" t="s">
+      <c r="G596" s="27" t="s">
         <v>605</v>
       </c>
-      <c r="H596" s="26" t="s">
+      <c r="H596" s="27" t="s">
         <v>606</v>
       </c>
       <c r="I596" s="20"/>
@@ -33766,13 +33778,13 @@
     </row>
     <row r="597" ht="43.5" customHeight="1" spans="1:33">
       <c r="A597" s="6"/>
-      <c r="B597" s="25"/>
-      <c r="C597" s="25"/>
-      <c r="D597" s="26"/>
+      <c r="B597" s="26"/>
+      <c r="C597" s="26"/>
+      <c r="D597" s="27"/>
       <c r="E597" s="16"/>
-      <c r="F597" s="26"/>
-      <c r="G597" s="26"/>
-      <c r="H597" s="26"/>
+      <c r="F597" s="27"/>
+      <c r="G597" s="27"/>
+      <c r="H597" s="27"/>
       <c r="I597" s="20"/>
       <c r="J597" s="19"/>
       <c r="K597" s="18"/>
@@ -33801,25 +33813,25 @@
     </row>
     <row r="598" ht="43.5" customHeight="1" spans="1:33">
       <c r="A598" s="6"/>
-      <c r="B598" s="25">
+      <c r="B598" s="26">
         <v>0.75</v>
       </c>
-      <c r="C598" s="25">
+      <c r="C598" s="26">
         <v>0.125</v>
       </c>
-      <c r="D598" s="26">
+      <c r="D598" s="27">
         <v>1032845582</v>
       </c>
       <c r="E598" s="16">
         <v>10329913</v>
       </c>
-      <c r="F598" s="26" t="s">
+      <c r="F598" s="27" t="s">
         <v>607</v>
       </c>
-      <c r="G598" s="26" t="s">
+      <c r="G598" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="H598" s="26" t="s">
+      <c r="H598" s="27" t="s">
         <v>177</v>
       </c>
       <c r="I598" s="20"/>
@@ -33850,13 +33862,13 @@
     </row>
     <row r="599" ht="43.5" customHeight="1" spans="1:33">
       <c r="A599" s="6"/>
-      <c r="B599" s="25"/>
-      <c r="C599" s="25"/>
-      <c r="D599" s="26"/>
+      <c r="B599" s="26"/>
+      <c r="C599" s="26"/>
+      <c r="D599" s="27"/>
       <c r="E599" s="16"/>
-      <c r="F599" s="26"/>
-      <c r="G599" s="26"/>
-      <c r="H599" s="26"/>
+      <c r="F599" s="27"/>
+      <c r="G599" s="27"/>
+      <c r="H599" s="27"/>
       <c r="I599" s="20"/>
       <c r="J599" s="19"/>
       <c r="K599" s="18"/>
@@ -33883,31 +33895,33 @@
       <c r="AF599" s="18"/>
       <c r="AG599" s="18"/>
     </row>
-    <row r="600" ht="43.5" customHeight="1" spans="1:33">
+    <row r="600" ht="47.25" customHeight="1" spans="1:33">
       <c r="A600" s="6"/>
-      <c r="B600" s="25">
+      <c r="B600" s="14">
         <v>0.75</v>
       </c>
-      <c r="C600" s="25">
-        <v>0.125</v>
-      </c>
-      <c r="D600" s="26">
-        <v>1140171762</v>
+      <c r="C600" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="D600" s="15">
+        <v>1004911039</v>
       </c>
       <c r="E600" s="16">
-        <v>10305638</v>
-      </c>
-      <c r="F600" s="26" t="s">
-        <v>608</v>
-      </c>
-      <c r="G600" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="H600" s="26" t="s">
-        <v>243</v>
+        <v>10344279</v>
+      </c>
+      <c r="F600" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="G600" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H600" s="29" t="s">
+        <v>60</v>
       </c>
       <c r="I600" s="20"/>
-      <c r="J600" s="19"/>
+      <c r="J600" s="19" t="s">
+        <v>559</v>
+      </c>
       <c r="K600" s="18"/>
       <c r="L600" s="18"/>
       <c r="M600" s="18"/>
@@ -33934,13 +33948,13 @@
     </row>
     <row r="601" ht="43.5" customHeight="1" spans="1:33">
       <c r="A601" s="6"/>
-      <c r="B601" s="25"/>
-      <c r="C601" s="25"/>
-      <c r="D601" s="26"/>
+      <c r="B601" s="26"/>
+      <c r="C601" s="26"/>
+      <c r="D601" s="27"/>
       <c r="E601" s="16"/>
-      <c r="F601" s="26"/>
-      <c r="G601" s="26"/>
-      <c r="H601" s="26"/>
+      <c r="F601" s="27"/>
+      <c r="G601" s="27"/>
+      <c r="H601" s="27"/>
       <c r="I601" s="20"/>
       <c r="J601" s="19"/>
       <c r="K601" s="18"/>
@@ -33967,17 +33981,29 @@
       <c r="AF601" s="18"/>
       <c r="AG601" s="18"/>
     </row>
-    <row r="602" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A602" s="9">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="B602" s="10"/>
-      <c r="C602" s="10"/>
-      <c r="D602" s="10"/>
-      <c r="E602" s="11"/>
-      <c r="F602" s="10"/>
-      <c r="G602" s="10"/>
-      <c r="H602" s="10"/>
+    <row r="602" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A602" s="6"/>
+      <c r="B602" s="26">
+        <v>0.75</v>
+      </c>
+      <c r="C602" s="26">
+        <v>0.125</v>
+      </c>
+      <c r="D602" s="27">
+        <v>1140171762</v>
+      </c>
+      <c r="E602" s="16">
+        <v>10305638</v>
+      </c>
+      <c r="F602" s="27" t="s">
+        <v>608</v>
+      </c>
+      <c r="G602" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="H602" s="27" t="s">
+        <v>243</v>
+      </c>
       <c r="I602" s="20"/>
       <c r="J602" s="19"/>
       <c r="K602" s="18"/>
@@ -34005,28 +34031,14 @@
       <c r="AG602" s="18"/>
     </row>
     <row r="603" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A603" s="9"/>
-      <c r="B603" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C603" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D603" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E603" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F603" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G603" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H603" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A603" s="6"/>
+      <c r="B603" s="26"/>
+      <c r="C603" s="26"/>
+      <c r="D603" s="27"/>
+      <c r="E603" s="16"/>
+      <c r="F603" s="27"/>
+      <c r="G603" s="27"/>
+      <c r="H603" s="27"/>
       <c r="I603" s="20"/>
       <c r="J603" s="19"/>
       <c r="K603" s="18"/>
@@ -34053,15 +34065,17 @@
       <c r="AF603" s="18"/>
       <c r="AG603" s="18"/>
     </row>
-    <row r="604" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A604" s="6"/>
-      <c r="B604" s="14"/>
-      <c r="C604" s="14"/>
-      <c r="D604" s="15"/>
-      <c r="E604" s="16"/>
-      <c r="F604" s="15"/>
-      <c r="G604" s="15"/>
-      <c r="H604" s="15"/>
+    <row r="604" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A604" s="9">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="B604" s="10"/>
+      <c r="C604" s="10"/>
+      <c r="D604" s="10"/>
+      <c r="E604" s="11"/>
+      <c r="F604" s="10"/>
+      <c r="G604" s="10"/>
+      <c r="H604" s="10"/>
       <c r="I604" s="20"/>
       <c r="J604" s="19"/>
       <c r="K604" s="18"/>
@@ -34089,27 +34103,27 @@
       <c r="AG604" s="18"/>
     </row>
     <row r="605" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A605" s="6"/>
-      <c r="B605" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C605" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D605" s="15">
-        <v>1098356001</v>
-      </c>
-      <c r="E605" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F605" s="15" t="s">
-        <v>610</v>
-      </c>
-      <c r="G605" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H605" s="15" t="s">
-        <v>69</v>
+      <c r="A605" s="9"/>
+      <c r="B605" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C605" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D605" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E605" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F605" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G605" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H605" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I605" s="20"/>
       <c r="J605" s="19"/>
@@ -34139,27 +34153,13 @@
     </row>
     <row r="606" ht="43.5" customHeight="1" spans="1:33">
       <c r="A606" s="6"/>
-      <c r="B606" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C606" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D606" s="15">
-        <v>1005018561</v>
-      </c>
-      <c r="E606" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F606" s="15" t="s">
-        <v>611</v>
-      </c>
-      <c r="G606" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="H606" s="15" t="s">
-        <v>69</v>
-      </c>
+      <c r="B606" s="14"/>
+      <c r="C606" s="14"/>
+      <c r="D606" s="15"/>
+      <c r="E606" s="16"/>
+      <c r="F606" s="15"/>
+      <c r="G606" s="15"/>
+      <c r="H606" s="15"/>
       <c r="I606" s="20"/>
       <c r="J606" s="19"/>
       <c r="K606" s="18"/>
@@ -34195,13 +34195,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D607" s="15">
-        <v>0</v>
+        <v>1098356001</v>
       </c>
       <c r="E607" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F607" s="15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G607" s="15" t="s">
         <v>69</v>
@@ -34244,13 +34244,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D608" s="15">
-        <v>1228798735</v>
+        <v>1005018561</v>
       </c>
       <c r="E608" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F608" s="15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="G608" s="15" t="s">
         <v>69</v>
@@ -34292,14 +34292,14 @@
       <c r="C609" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D609" s="15" t="s">
-        <v>614</v>
+      <c r="D609" s="15">
+        <v>0</v>
       </c>
       <c r="E609" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F609" s="15" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="G609" s="15" t="s">
         <v>69</v>
@@ -34342,13 +34342,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D610" s="15">
-        <v>1090045735</v>
+        <v>1228798735</v>
       </c>
       <c r="E610" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F610" s="15" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G610" s="15" t="s">
         <v>69</v>
@@ -34390,14 +34390,14 @@
       <c r="C611" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D611" s="15">
-        <v>1064802534</v>
+      <c r="D611" s="15" t="s">
+        <v>614</v>
       </c>
       <c r="E611" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F611" s="15" t="s">
-        <v>368</v>
+        <v>615</v>
       </c>
       <c r="G611" s="15" t="s">
         <v>69</v>
@@ -34440,13 +34440,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D612" s="15">
-        <v>1091907434</v>
+        <v>1090045735</v>
       </c>
       <c r="E612" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F612" s="15" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G612" s="15" t="s">
         <v>69</v>
@@ -34489,13 +34489,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D613" s="15">
-        <v>1099570879</v>
+        <v>1064802534</v>
       </c>
       <c r="E613" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F613" s="15" t="s">
-        <v>618</v>
+        <v>368</v>
       </c>
       <c r="G613" s="15" t="s">
         <v>69</v>
@@ -34538,13 +34538,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D614" s="15">
-        <v>1224990626</v>
+        <v>1091907434</v>
       </c>
       <c r="E614" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F614" s="15" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G614" s="15" t="s">
         <v>69</v>
@@ -34587,13 +34587,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D615" s="15">
-        <v>1155626917</v>
+        <v>1099570879</v>
       </c>
       <c r="E615" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F615" s="15" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G615" s="15" t="s">
         <v>69</v>
@@ -34636,13 +34636,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D616" s="15">
-        <v>1030330007</v>
+        <v>1224990626</v>
       </c>
       <c r="E616" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F616" s="15" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="G616" s="15" t="s">
         <v>69</v>
@@ -34678,13 +34678,27 @@
     </row>
     <row r="617" ht="43.5" customHeight="1" spans="1:33">
       <c r="A617" s="6"/>
-      <c r="B617" s="14"/>
-      <c r="C617" s="14"/>
-      <c r="D617" s="15"/>
-      <c r="E617" s="16"/>
-      <c r="F617" s="15"/>
-      <c r="G617" s="15"/>
-      <c r="H617" s="15"/>
+      <c r="B617" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C617" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D617" s="15">
+        <v>1155626917</v>
+      </c>
+      <c r="E617" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F617" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="G617" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H617" s="15" t="s">
+        <v>69</v>
+      </c>
       <c r="I617" s="20"/>
       <c r="J617" s="19"/>
       <c r="K617" s="18"/>
@@ -34720,19 +34734,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D618" s="15">
-        <v>1281239426</v>
+        <v>1030330007</v>
       </c>
       <c r="E618" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F618" s="15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G618" s="15" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="H618" s="15" t="s">
-        <v>556</v>
+        <v>69</v>
       </c>
       <c r="I618" s="20"/>
       <c r="J618" s="19"/>
@@ -34762,27 +34776,13 @@
     </row>
     <row r="619" ht="43.5" customHeight="1" spans="1:33">
       <c r="A619" s="6"/>
-      <c r="B619" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C619" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D619" s="15">
-        <v>1070677030</v>
-      </c>
-      <c r="E619" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F619" s="15" t="s">
-        <v>623</v>
-      </c>
-      <c r="G619" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H619" s="15" t="s">
-        <v>624</v>
-      </c>
+      <c r="B619" s="14"/>
+      <c r="C619" s="14"/>
+      <c r="D619" s="15"/>
+      <c r="E619" s="16"/>
+      <c r="F619" s="15"/>
+      <c r="G619" s="15"/>
+      <c r="H619" s="15"/>
       <c r="I619" s="20"/>
       <c r="J619" s="19"/>
       <c r="K619" s="18"/>
@@ -34818,19 +34818,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D620" s="15">
-        <v>1020340671</v>
+        <v>1281239426</v>
       </c>
       <c r="E620" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F620" s="15" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G620" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H620" s="15" t="s">
-        <v>50</v>
+        <v>556</v>
       </c>
       <c r="I620" s="20"/>
       <c r="J620" s="19"/>
@@ -34867,19 +34867,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D621" s="15">
-        <v>1023360348</v>
+        <v>1070677030</v>
       </c>
       <c r="E621" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F621" s="15" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G621" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H621" s="15" t="s">
-        <v>26</v>
+        <v>624</v>
       </c>
       <c r="I621" s="20"/>
       <c r="J621" s="19"/>
@@ -34916,19 +34916,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D622" s="15">
-        <v>1004402706</v>
+        <v>1020340671</v>
       </c>
       <c r="E622" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F622" s="15" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="G622" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H622" s="15" t="s">
-        <v>624</v>
+        <v>50</v>
       </c>
       <c r="I622" s="20"/>
       <c r="J622" s="19"/>
@@ -34965,19 +34965,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D623" s="15">
-        <v>1129758220</v>
+        <v>1023360348</v>
       </c>
       <c r="E623" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F623" s="15" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G623" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H623" s="15" t="s">
-        <v>624</v>
+        <v>26</v>
       </c>
       <c r="I623" s="20"/>
       <c r="J623" s="19"/>
@@ -35014,19 +35014,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D624" s="15">
-        <v>1091172333</v>
+        <v>1004402706</v>
       </c>
       <c r="E624" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F624" s="15" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="G624" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H624" s="15" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="I624" s="20"/>
       <c r="J624" s="19"/>
@@ -35063,19 +35063,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D625" s="15">
-        <v>1111993596</v>
+        <v>1129758220</v>
       </c>
       <c r="E625" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F625" s="15" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="G625" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H625" s="15" t="s">
-        <v>50</v>
+        <v>624</v>
       </c>
       <c r="I625" s="20"/>
       <c r="J625" s="19"/>
@@ -35112,19 +35112,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D626" s="15">
-        <v>1276895693</v>
-      </c>
-      <c r="E626" s="16">
-        <v>10279718</v>
+        <v>1091172333</v>
+      </c>
+      <c r="E626" s="16" t="s">
+        <v>609</v>
       </c>
       <c r="F626" s="15" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G626" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H626" s="15" t="s">
-        <v>88</v>
+        <v>630</v>
       </c>
       <c r="I626" s="20"/>
       <c r="J626" s="19"/>
@@ -35154,13 +35154,27 @@
     </row>
     <row r="627" ht="43.5" customHeight="1" spans="1:33">
       <c r="A627" s="6"/>
-      <c r="B627" s="14"/>
-      <c r="C627" s="14"/>
-      <c r="D627" s="15"/>
-      <c r="E627" s="16"/>
-      <c r="F627" s="15"/>
-      <c r="G627" s="15"/>
-      <c r="H627" s="15"/>
+      <c r="B627" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C627" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D627" s="15">
+        <v>1111993596</v>
+      </c>
+      <c r="E627" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F627" s="15" t="s">
+        <v>631</v>
+      </c>
+      <c r="G627" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H627" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="I627" s="20"/>
       <c r="J627" s="19"/>
       <c r="K627" s="18"/>
@@ -35196,19 +35210,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D628" s="15">
-        <v>1288124388</v>
-      </c>
-      <c r="E628" s="16" t="s">
-        <v>609</v>
+        <v>1276895693</v>
+      </c>
+      <c r="E628" s="16">
+        <v>10279718</v>
       </c>
       <c r="F628" s="15" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G628" s="15" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="H628" s="15" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="I628" s="20"/>
       <c r="J628" s="19"/>
@@ -35280,19 +35294,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D630" s="15">
-        <v>1129177770</v>
+        <v>1288124388</v>
       </c>
       <c r="E630" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F630" s="15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G630" s="15" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="H630" s="15" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="I630" s="20"/>
       <c r="J630" s="19"/>
@@ -35322,27 +35336,13 @@
     </row>
     <row r="631" ht="43.5" customHeight="1" spans="1:33">
       <c r="A631" s="6"/>
-      <c r="B631" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C631" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D631" s="15">
-        <v>1148282927</v>
-      </c>
-      <c r="E631" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F631" s="15" t="s">
-        <v>635</v>
-      </c>
-      <c r="G631" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H631" s="15" t="s">
-        <v>31</v>
-      </c>
+      <c r="B631" s="14"/>
+      <c r="C631" s="14"/>
+      <c r="D631" s="15"/>
+      <c r="E631" s="16"/>
+      <c r="F631" s="15"/>
+      <c r="G631" s="15"/>
+      <c r="H631" s="15"/>
       <c r="I631" s="20"/>
       <c r="J631" s="19"/>
       <c r="K631" s="18"/>
@@ -35378,13 +35378,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D632" s="15">
-        <v>1016508706</v>
+        <v>1129177770</v>
       </c>
       <c r="E632" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F632" s="15" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G632" s="15" t="s">
         <v>30</v>
@@ -35427,13 +35427,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D633" s="15">
-        <v>1551559737</v>
+        <v>1148282927</v>
       </c>
       <c r="E633" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F633" s="15" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="G633" s="15" t="s">
         <v>30</v>
@@ -35469,13 +35469,27 @@
     </row>
     <row r="634" ht="43.5" customHeight="1" spans="1:33">
       <c r="A634" s="6"/>
-      <c r="B634" s="14"/>
-      <c r="C634" s="14"/>
-      <c r="D634" s="15"/>
-      <c r="E634" s="16"/>
-      <c r="F634" s="15"/>
-      <c r="G634" s="15"/>
-      <c r="H634" s="15"/>
+      <c r="B634" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C634" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D634" s="15">
+        <v>1016508706</v>
+      </c>
+      <c r="E634" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F634" s="15" t="s">
+        <v>636</v>
+      </c>
+      <c r="G634" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H634" s="15" t="s">
+        <v>31</v>
+      </c>
       <c r="I634" s="20"/>
       <c r="J634" s="19"/>
       <c r="K634" s="18"/>
@@ -35511,19 +35525,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D635" s="15">
-        <v>1104380295</v>
+        <v>1551559737</v>
       </c>
       <c r="E635" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F635" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G635" s="15" t="s">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="H635" s="15" t="s">
-        <v>135</v>
+        <v>31</v>
       </c>
       <c r="I635" s="20"/>
       <c r="J635" s="19"/>
@@ -35595,19 +35609,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D637" s="15">
-        <v>1554565056</v>
+        <v>1104380295</v>
       </c>
       <c r="E637" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F637" s="15" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G637" s="15" t="s">
-        <v>13</v>
+        <v>129</v>
       </c>
       <c r="H637" s="15" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I637" s="20"/>
       <c r="J637" s="19"/>
@@ -35637,27 +35651,13 @@
     </row>
     <row r="638" ht="43.5" customHeight="1" spans="1:33">
       <c r="A638" s="6"/>
-      <c r="B638" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C638" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D638" s="15">
-        <v>1559562770</v>
-      </c>
-      <c r="E638" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F638" s="15" t="s">
-        <v>640</v>
-      </c>
-      <c r="G638" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H638" s="15" t="s">
-        <v>438</v>
-      </c>
+      <c r="B638" s="14"/>
+      <c r="C638" s="14"/>
+      <c r="D638" s="15"/>
+      <c r="E638" s="16"/>
+      <c r="F638" s="15"/>
+      <c r="G638" s="15"/>
+      <c r="H638" s="15"/>
       <c r="I638" s="20"/>
       <c r="J638" s="19"/>
       <c r="K638" s="18"/>
@@ -35693,19 +35693,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D639" s="15">
-        <v>1006361054</v>
+        <v>1554565056</v>
       </c>
       <c r="E639" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F639" s="15" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="G639" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H639" s="15" t="s">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="I639" s="20"/>
       <c r="J639" s="19"/>
@@ -35742,19 +35742,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D640" s="15">
-        <v>1158630184</v>
+        <v>1559562770</v>
       </c>
       <c r="E640" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F640" s="15" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G640" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H640" s="15" t="s">
-        <v>33</v>
+        <v>438</v>
       </c>
       <c r="I640" s="20"/>
       <c r="J640" s="19"/>
@@ -35791,19 +35791,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D641" s="15">
-        <v>1000749357</v>
+        <v>1006361054</v>
       </c>
       <c r="E641" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F641" s="15" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="G641" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H641" s="15" t="s">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="I641" s="20"/>
       <c r="J641" s="19"/>
@@ -35840,19 +35840,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D642" s="15">
-        <v>1018848175</v>
+        <v>1158630184</v>
       </c>
       <c r="E642" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F642" s="15" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="G642" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H642" s="15" t="s">
-        <v>296</v>
+        <v>33</v>
       </c>
       <c r="I642" s="20"/>
       <c r="J642" s="19"/>
@@ -35882,13 +35882,27 @@
     </row>
     <row r="643" ht="43.5" customHeight="1" spans="1:33">
       <c r="A643" s="6"/>
-      <c r="B643" s="14"/>
-      <c r="C643" s="14"/>
-      <c r="D643" s="15"/>
-      <c r="E643" s="16"/>
-      <c r="F643" s="15"/>
-      <c r="G643" s="15"/>
-      <c r="H643" s="15"/>
+      <c r="B643" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C643" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D643" s="15">
+        <v>1000749357</v>
+      </c>
+      <c r="E643" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F643" s="15" t="s">
+        <v>643</v>
+      </c>
+      <c r="G643" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H643" s="15" t="s">
+        <v>141</v>
+      </c>
       <c r="I643" s="20"/>
       <c r="J643" s="19"/>
       <c r="K643" s="18"/>
@@ -35924,19 +35938,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D644" s="15">
-        <v>1115409972</v>
+        <v>1018848175</v>
       </c>
       <c r="E644" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F644" s="15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G644" s="15" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H644" s="15" t="s">
-        <v>579</v>
+        <v>296</v>
       </c>
       <c r="I644" s="20"/>
       <c r="J644" s="19"/>
@@ -36008,19 +36022,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D646" s="15">
-        <v>1002894384</v>
+        <v>1115409972</v>
       </c>
       <c r="E646" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F646" s="15" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G646" s="15" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="H646" s="15" t="s">
-        <v>438</v>
+        <v>579</v>
       </c>
       <c r="I646" s="20"/>
       <c r="J646" s="19"/>
@@ -36050,27 +36064,13 @@
     </row>
     <row r="647" ht="43.5" customHeight="1" spans="1:33">
       <c r="A647" s="6"/>
-      <c r="B647" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C647" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D647" s="15">
-        <v>1011919329</v>
-      </c>
-      <c r="E647" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F647" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="G647" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="H647" s="15" t="s">
-        <v>438</v>
-      </c>
+      <c r="B647" s="14"/>
+      <c r="C647" s="14"/>
+      <c r="D647" s="15"/>
+      <c r="E647" s="16"/>
+      <c r="F647" s="15"/>
+      <c r="G647" s="15"/>
+      <c r="H647" s="15"/>
       <c r="I647" s="20"/>
       <c r="J647" s="19"/>
       <c r="K647" s="18"/>
@@ -36106,19 +36106,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D648" s="15">
-        <v>1055980976</v>
+        <v>1002894384</v>
       </c>
       <c r="E648" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F648" s="15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="G648" s="15" t="s">
         <v>161</v>
       </c>
       <c r="H648" s="15" t="s">
-        <v>162</v>
+        <v>438</v>
       </c>
       <c r="I648" s="20"/>
       <c r="J648" s="19"/>
@@ -36148,13 +36148,27 @@
     </row>
     <row r="649" ht="43.5" customHeight="1" spans="1:33">
       <c r="A649" s="6"/>
-      <c r="B649" s="14"/>
-      <c r="C649" s="14"/>
-      <c r="D649" s="15"/>
-      <c r="E649" s="16"/>
-      <c r="F649" s="15"/>
-      <c r="G649" s="15"/>
-      <c r="H649" s="15"/>
+      <c r="B649" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C649" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D649" s="15">
+        <v>1011919329</v>
+      </c>
+      <c r="E649" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F649" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="G649" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="H649" s="15" t="s">
+        <v>438</v>
+      </c>
       <c r="I649" s="20"/>
       <c r="J649" s="19"/>
       <c r="K649" s="18"/>
@@ -36190,19 +36204,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D650" s="15">
-        <v>1093698710</v>
+        <v>1055980976</v>
       </c>
       <c r="E650" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F650" s="15" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G650" s="15" t="s">
-        <v>40</v>
+        <v>161</v>
       </c>
       <c r="H650" s="15" t="s">
-        <v>41</v>
+        <v>162</v>
       </c>
       <c r="I650" s="20"/>
       <c r="J650" s="19"/>
@@ -36274,19 +36288,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D652" s="15">
-        <v>1155829737</v>
+        <v>1093698710</v>
       </c>
       <c r="E652" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F652" s="15" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G652" s="15" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H652" s="15" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I652" s="20"/>
       <c r="J652" s="19"/>
@@ -36316,27 +36330,13 @@
     </row>
     <row r="653" ht="43.5" customHeight="1" spans="1:33">
       <c r="A653" s="6"/>
-      <c r="B653" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C653" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D653" s="15" t="s">
-        <v>651</v>
-      </c>
-      <c r="E653" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F653" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="G653" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H653" s="15" t="s">
-        <v>653</v>
-      </c>
+      <c r="B653" s="14"/>
+      <c r="C653" s="14"/>
+      <c r="D653" s="15"/>
+      <c r="E653" s="16"/>
+      <c r="F653" s="15"/>
+      <c r="G653" s="15"/>
+      <c r="H653" s="15"/>
       <c r="I653" s="20"/>
       <c r="J653" s="19"/>
       <c r="K653" s="18"/>
@@ -36372,19 +36372,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D654" s="15">
-        <v>1011053278</v>
+        <v>1155829737</v>
       </c>
       <c r="E654" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F654" s="15" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="G654" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H654" s="15" t="s">
-        <v>189</v>
+        <v>58</v>
       </c>
       <c r="I654" s="20"/>
       <c r="J654" s="19"/>
@@ -36420,20 +36420,20 @@
       <c r="C655" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D655" s="15">
-        <v>1004919775</v>
+      <c r="D655" s="15" t="s">
+        <v>651</v>
       </c>
       <c r="E655" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F655" s="15" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="G655" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H655" s="15" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="I655" s="20"/>
       <c r="J655" s="19"/>
@@ -36470,19 +36470,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D656" s="15">
-        <v>1044859463</v>
+        <v>1011053278</v>
       </c>
       <c r="E656" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F656" s="15" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="G656" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H656" s="15" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="I656" s="20"/>
       <c r="J656" s="19"/>
@@ -36518,14 +36518,14 @@
       <c r="C657" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D657" s="15" t="s">
-        <v>658</v>
+      <c r="D657" s="15">
+        <v>1004919775</v>
       </c>
       <c r="E657" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F657" s="15" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="G657" s="15" t="s">
         <v>55</v>
@@ -36567,20 +36567,20 @@
       <c r="C658" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D658" s="15" t="s">
-        <v>660</v>
+      <c r="D658" s="15">
+        <v>1044859463</v>
       </c>
       <c r="E658" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F658" s="15" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="G658" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H658" s="15" t="s">
-        <v>662</v>
+        <v>58</v>
       </c>
       <c r="I658" s="20"/>
       <c r="J658" s="19"/>
@@ -36616,20 +36616,20 @@
       <c r="C659" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D659" s="15">
-        <v>1555693374</v>
+      <c r="D659" s="15" t="s">
+        <v>658</v>
       </c>
       <c r="E659" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F659" s="15" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="G659" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H659" s="15" t="s">
-        <v>58</v>
+        <v>656</v>
       </c>
       <c r="I659" s="20"/>
       <c r="J659" s="19"/>
@@ -36665,20 +36665,20 @@
       <c r="C660" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D660" s="15">
-        <v>1144418499</v>
+      <c r="D660" s="15" t="s">
+        <v>660</v>
       </c>
       <c r="E660" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F660" s="15" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G660" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H660" s="15" t="s">
-        <v>185</v>
+        <v>662</v>
       </c>
       <c r="I660" s="20"/>
       <c r="J660" s="19"/>
@@ -36715,19 +36715,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D661" s="15">
-        <v>1013996057</v>
+        <v>1555693374</v>
       </c>
       <c r="E661" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F661" s="15" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="G661" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H661" s="15" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I661" s="20"/>
       <c r="J661" s="19"/>
@@ -36764,19 +36764,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D662" s="15">
-        <v>1141539546</v>
+        <v>1144418499</v>
       </c>
       <c r="E662" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F662" s="15" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="G662" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H662" s="15" t="s">
-        <v>56</v>
+        <v>185</v>
       </c>
       <c r="I662" s="20"/>
       <c r="J662" s="19"/>
@@ -36813,19 +36813,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D663" s="15">
-        <v>1093300936</v>
+        <v>1013996057</v>
       </c>
       <c r="E663" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F663" s="15" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="G663" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H663" s="15" t="s">
-        <v>185</v>
+        <v>60</v>
       </c>
       <c r="I663" s="20"/>
       <c r="J663" s="19"/>
@@ -36862,13 +36862,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D664" s="15">
-        <v>1097830817</v>
-      </c>
-      <c r="E664" s="16">
-        <v>10284140</v>
+        <v>1141539546</v>
+      </c>
+      <c r="E664" s="16" t="s">
+        <v>609</v>
       </c>
       <c r="F664" s="15" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="G664" s="15" t="s">
         <v>55</v>
@@ -36904,13 +36904,27 @@
     </row>
     <row r="665" ht="43.5" customHeight="1" spans="1:33">
       <c r="A665" s="6"/>
-      <c r="B665" s="14"/>
-      <c r="C665" s="14"/>
-      <c r="D665" s="15"/>
-      <c r="E665" s="16"/>
-      <c r="F665" s="15"/>
-      <c r="G665" s="15"/>
-      <c r="H665" s="15"/>
+      <c r="B665" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C665" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D665" s="15">
+        <v>1093300936</v>
+      </c>
+      <c r="E665" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F665" s="15" t="s">
+        <v>667</v>
+      </c>
+      <c r="G665" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H665" s="15" t="s">
+        <v>185</v>
+      </c>
       <c r="I665" s="20"/>
       <c r="J665" s="19"/>
       <c r="K665" s="18"/>
@@ -36946,19 +36960,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D666" s="15">
-        <v>1090456730</v>
-      </c>
-      <c r="E666" s="16" t="s">
-        <v>609</v>
+        <v>1097830817</v>
+      </c>
+      <c r="E666" s="16">
+        <v>10284140</v>
       </c>
       <c r="F666" s="15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G666" s="15" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="H666" s="15" t="s">
-        <v>203</v>
+        <v>56</v>
       </c>
       <c r="I666" s="20"/>
       <c r="J666" s="19"/>
@@ -37030,19 +37044,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D668" s="15">
-        <v>1091324859</v>
+        <v>1090456730</v>
       </c>
       <c r="E668" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F668" s="15" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G668" s="15" t="s">
-        <v>64</v>
+        <v>202</v>
       </c>
       <c r="H668" s="15" t="s">
-        <v>65</v>
+        <v>203</v>
       </c>
       <c r="I668" s="20"/>
       <c r="J668" s="19"/>
@@ -37072,27 +37086,13 @@
     </row>
     <row r="669" ht="43.5" customHeight="1" spans="1:33">
       <c r="A669" s="6"/>
-      <c r="B669" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C669" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D669" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="E669" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F669" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="G669" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H669" s="15" t="s">
-        <v>219</v>
-      </c>
+      <c r="B669" s="14"/>
+      <c r="C669" s="14"/>
+      <c r="D669" s="15"/>
+      <c r="E669" s="16"/>
+      <c r="F669" s="15"/>
+      <c r="G669" s="15"/>
+      <c r="H669" s="15"/>
       <c r="I669" s="20"/>
       <c r="J669" s="19"/>
       <c r="K669" s="18"/>
@@ -37127,20 +37127,20 @@
       <c r="C670" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D670" s="15" t="s">
-        <v>673</v>
+      <c r="D670" s="15">
+        <v>1091324859</v>
       </c>
       <c r="E670" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F670" s="15" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G670" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H670" s="15" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="I670" s="20"/>
       <c r="J670" s="19"/>
@@ -37176,14 +37176,14 @@
       <c r="C671" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D671" s="15">
-        <v>1273499496</v>
+      <c r="D671" s="15" t="s">
+        <v>671</v>
       </c>
       <c r="E671" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F671" s="15" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="G671" s="15" t="s">
         <v>64</v>
@@ -37225,20 +37225,20 @@
       <c r="C672" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D672" s="15">
-        <v>1552048168</v>
+      <c r="D672" s="15" t="s">
+        <v>673</v>
       </c>
       <c r="E672" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F672" s="15" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="G672" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H672" s="15" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="I672" s="20"/>
       <c r="J672" s="19"/>
@@ -37275,13 +37275,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D673" s="15">
-        <v>1097424636</v>
+        <v>1273499496</v>
       </c>
       <c r="E673" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F673" s="15" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="G673" s="15" t="s">
         <v>64</v>
@@ -37324,19 +37324,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D674" s="15">
-        <v>1500087789</v>
+        <v>1552048168</v>
       </c>
       <c r="E674" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F674" s="15" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="G674" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H674" s="15" t="s">
-        <v>679</v>
+        <v>209</v>
       </c>
       <c r="I674" s="20"/>
       <c r="J674" s="19"/>
@@ -37373,13 +37373,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D675" s="15">
-        <v>1222696146</v>
+        <v>1097424636</v>
       </c>
       <c r="E675" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F675" s="15" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="G675" s="15" t="s">
         <v>64</v>
@@ -37422,19 +37422,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D676" s="15">
-        <v>1279016185</v>
+        <v>1500087789</v>
       </c>
       <c r="E676" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F676" s="15" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="G676" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H676" s="15" t="s">
-        <v>219</v>
+        <v>679</v>
       </c>
       <c r="I676" s="20"/>
       <c r="J676" s="19"/>
@@ -37471,19 +37471,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D677" s="15">
-        <v>1010757990</v>
+        <v>1222696146</v>
       </c>
       <c r="E677" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F677" s="15" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="G677" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H677" s="15" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="I677" s="20"/>
       <c r="J677" s="19"/>
@@ -37519,20 +37519,20 @@
       <c r="C678" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D678" s="15" t="s">
-        <v>683</v>
+      <c r="D678" s="15">
+        <v>1279016185</v>
       </c>
       <c r="E678" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F678" s="15" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="G678" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H678" s="15" t="s">
-        <v>65</v>
+        <v>219</v>
       </c>
       <c r="I678" s="20"/>
       <c r="J678" s="19"/>
@@ -37569,19 +37569,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D679" s="15">
-        <v>1270864338</v>
+        <v>1010757990</v>
       </c>
       <c r="E679" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F679" s="15" t="s">
-        <v>406</v>
+        <v>682</v>
       </c>
       <c r="G679" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H679" s="15" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="I679" s="20"/>
       <c r="J679" s="19"/>
@@ -37618,19 +37618,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D680" s="15" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="E680" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F680" s="15" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="G680" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H680" s="15" t="s">
-        <v>286</v>
+        <v>65</v>
       </c>
       <c r="I680" s="20"/>
       <c r="J680" s="19"/>
@@ -37667,19 +37667,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D681" s="15">
-        <v>1050623708</v>
+        <v>1270864338</v>
       </c>
       <c r="E681" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F681" s="15" t="s">
-        <v>687</v>
+        <v>406</v>
       </c>
       <c r="G681" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H681" s="15" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="I681" s="20"/>
       <c r="J681" s="19"/>
@@ -37715,14 +37715,14 @@
       <c r="C682" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D682" s="15">
-        <v>1008361694</v>
-      </c>
-      <c r="E682" s="16">
-        <v>10333447</v>
+      <c r="D682" s="15" t="s">
+        <v>685</v>
+      </c>
+      <c r="E682" s="16" t="s">
+        <v>609</v>
       </c>
       <c r="F682" s="15" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="G682" s="15" t="s">
         <v>64</v>
@@ -37765,13 +37765,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D683" s="15">
-        <v>1061357183</v>
-      </c>
-      <c r="E683" s="16">
-        <v>10212362</v>
+        <v>1050623708</v>
+      </c>
+      <c r="E683" s="16" t="s">
+        <v>609</v>
       </c>
       <c r="F683" s="15" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="G683" s="15" t="s">
         <v>64</v>
@@ -37807,13 +37807,27 @@
     </row>
     <row r="684" ht="43.5" customHeight="1" spans="1:33">
       <c r="A684" s="6"/>
-      <c r="B684" s="14"/>
-      <c r="C684" s="14"/>
-      <c r="D684" s="15"/>
-      <c r="E684" s="16"/>
-      <c r="F684" s="15"/>
-      <c r="G684" s="15"/>
-      <c r="H684" s="15"/>
+      <c r="B684" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C684" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D684" s="15">
+        <v>1008361694</v>
+      </c>
+      <c r="E684" s="16">
+        <v>10333447</v>
+      </c>
+      <c r="F684" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="G684" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H684" s="15" t="s">
+        <v>286</v>
+      </c>
       <c r="I684" s="20"/>
       <c r="J684" s="19"/>
       <c r="K684" s="18"/>
@@ -37849,19 +37863,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D685" s="15">
-        <v>1031695970</v>
-      </c>
-      <c r="E685" s="16" t="s">
-        <v>609</v>
+        <v>1061357183</v>
+      </c>
+      <c r="E685" s="16">
+        <v>10212362</v>
       </c>
       <c r="F685" s="15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G685" s="15" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H685" s="15" t="s">
-        <v>691</v>
+        <v>65</v>
       </c>
       <c r="I685" s="20"/>
       <c r="J685" s="19"/>
@@ -37891,27 +37905,13 @@
     </row>
     <row r="686" ht="43.5" customHeight="1" spans="1:33">
       <c r="A686" s="6"/>
-      <c r="B686" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C686" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D686" s="15">
-        <v>1008733491</v>
-      </c>
-      <c r="E686" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F686" s="15" t="s">
-        <v>692</v>
-      </c>
-      <c r="G686" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H686" s="15" t="s">
-        <v>44</v>
-      </c>
+      <c r="B686" s="14"/>
+      <c r="C686" s="14"/>
+      <c r="D686" s="15"/>
+      <c r="E686" s="16"/>
+      <c r="F686" s="15"/>
+      <c r="G686" s="15"/>
+      <c r="H686" s="15"/>
       <c r="I686" s="20"/>
       <c r="J686" s="19"/>
       <c r="K686" s="18"/>
@@ -37947,19 +37947,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D687" s="15">
-        <v>1096062793</v>
+        <v>1031695970</v>
       </c>
       <c r="E687" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F687" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="G687" s="15" t="s">
         <v>43</v>
       </c>
       <c r="H687" s="15" t="s">
-        <v>44</v>
+        <v>691</v>
       </c>
       <c r="I687" s="20"/>
       <c r="J687" s="19"/>
@@ -37995,14 +37995,14 @@
       <c r="C688" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D688" s="15" t="s">
-        <v>694</v>
+      <c r="D688" s="15">
+        <v>1008733491</v>
       </c>
       <c r="E688" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F688" s="15" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="G688" s="15" t="s">
         <v>43</v>
@@ -38045,13 +38045,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D689" s="15">
-        <v>1558595142</v>
+        <v>1096062793</v>
       </c>
       <c r="E689" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F689" s="15" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="G689" s="15" t="s">
         <v>43</v>
@@ -38093,20 +38093,20 @@
       <c r="C690" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D690" s="15">
-        <v>1014606374</v>
+      <c r="D690" s="15" t="s">
+        <v>694</v>
       </c>
       <c r="E690" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F690" s="15" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="G690" s="15" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H690" s="15" t="s">
-        <v>531</v>
+        <v>44</v>
       </c>
       <c r="I690" s="20"/>
       <c r="J690" s="19"/>
@@ -38143,19 +38143,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D691" s="15">
-        <v>1146188508</v>
+        <v>1558595142</v>
       </c>
       <c r="E691" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F691" s="15" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="G691" s="15" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H691" s="15" t="s">
-        <v>531</v>
+        <v>44</v>
       </c>
       <c r="I691" s="20"/>
       <c r="J691" s="19"/>
@@ -38191,14 +38191,14 @@
       <c r="C692" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D692" s="15" t="s">
-        <v>699</v>
+      <c r="D692" s="15">
+        <v>1014606374</v>
       </c>
       <c r="E692" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F692" s="15" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="G692" s="15" t="s">
         <v>16</v>
@@ -38241,19 +38241,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D693" s="15">
-        <v>1129422164</v>
+        <v>1146188508</v>
       </c>
       <c r="E693" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F693" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="G693" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H693" s="15" t="s">
-        <v>17</v>
+        <v>531</v>
       </c>
       <c r="I693" s="20"/>
       <c r="J693" s="19"/>
@@ -38289,20 +38289,20 @@
       <c r="C694" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D694" s="15">
-        <v>1144629255</v>
+      <c r="D694" s="15" t="s">
+        <v>699</v>
       </c>
       <c r="E694" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F694" s="15" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="G694" s="15" t="s">
         <v>16</v>
       </c>
       <c r="H694" s="15" t="s">
-        <v>17</v>
+        <v>531</v>
       </c>
       <c r="I694" s="20"/>
       <c r="J694" s="19"/>
@@ -38339,13 +38339,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D695" s="15">
-        <v>1505091326</v>
+        <v>1129422164</v>
       </c>
       <c r="E695" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F695" s="15" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="G695" s="15" t="s">
         <v>16</v>
@@ -38387,14 +38387,14 @@
       <c r="C696" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D696" s="15" t="s">
-        <v>704</v>
+      <c r="D696" s="15">
+        <v>1144629255</v>
       </c>
       <c r="E696" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F696" s="15" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="G696" s="15" t="s">
         <v>16</v>
@@ -38437,13 +38437,13 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D697" s="15">
-        <v>1027543612</v>
+        <v>1505091326</v>
       </c>
       <c r="E697" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F697" s="15" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="G697" s="15" t="s">
         <v>16</v>
@@ -38485,14 +38485,14 @@
       <c r="C698" s="14">
         <v>0.166666666666667</v>
       </c>
-      <c r="D698" s="15">
-        <v>1507870093</v>
+      <c r="D698" s="15" t="s">
+        <v>704</v>
       </c>
       <c r="E698" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F698" s="15" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="G698" s="15" t="s">
         <v>16</v>
@@ -38528,13 +38528,27 @@
     </row>
     <row r="699" ht="43.5" customHeight="1" spans="1:33">
       <c r="A699" s="6"/>
-      <c r="B699" s="14"/>
-      <c r="C699" s="14"/>
-      <c r="D699" s="15"/>
-      <c r="E699" s="16"/>
-      <c r="F699" s="15"/>
-      <c r="G699" s="15"/>
-      <c r="H699" s="15"/>
+      <c r="B699" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C699" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D699" s="15">
+        <v>1027543612</v>
+      </c>
+      <c r="E699" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F699" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="G699" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H699" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I699" s="20"/>
       <c r="J699" s="19"/>
       <c r="K699" s="18"/>
@@ -38570,19 +38584,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D700" s="15">
-        <v>1146630188</v>
+        <v>1507870093</v>
       </c>
       <c r="E700" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F700" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G700" s="15" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H700" s="15" t="s">
-        <v>709</v>
+        <v>17</v>
       </c>
       <c r="I700" s="20"/>
       <c r="J700" s="19"/>
@@ -38612,27 +38626,13 @@
     </row>
     <row r="701" ht="43.5" customHeight="1" spans="1:33">
       <c r="A701" s="6"/>
-      <c r="B701" s="14">
-        <v>0.791666666666667</v>
-      </c>
-      <c r="C701" s="14">
-        <v>0.166666666666667</v>
-      </c>
-      <c r="D701" s="15">
-        <v>1024271525</v>
-      </c>
-      <c r="E701" s="16" t="s">
-        <v>609</v>
-      </c>
-      <c r="F701" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="G701" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H701" s="15" t="s">
-        <v>711</v>
-      </c>
+      <c r="B701" s="14"/>
+      <c r="C701" s="14"/>
+      <c r="D701" s="15"/>
+      <c r="E701" s="16"/>
+      <c r="F701" s="15"/>
+      <c r="G701" s="15"/>
+      <c r="H701" s="15"/>
       <c r="I701" s="20"/>
       <c r="J701" s="19"/>
       <c r="K701" s="18"/>
@@ -38668,19 +38668,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D702" s="15">
-        <v>1553845066</v>
+        <v>1146630188</v>
       </c>
       <c r="E702" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F702" s="15" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G702" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H702" s="15" t="s">
-        <v>234</v>
+        <v>709</v>
       </c>
       <c r="I702" s="20"/>
       <c r="J702" s="19"/>
@@ -38717,19 +38717,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D703" s="15">
-        <v>1117751667</v>
+        <v>1024271525</v>
       </c>
       <c r="E703" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F703" s="15" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="G703" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H703" s="15" t="s">
-        <v>234</v>
+        <v>711</v>
       </c>
       <c r="I703" s="20"/>
       <c r="J703" s="19"/>
@@ -38759,13 +38759,27 @@
     </row>
     <row r="704" ht="43.5" customHeight="1" spans="1:33">
       <c r="A704" s="6"/>
-      <c r="B704" s="14"/>
-      <c r="C704" s="14"/>
-      <c r="D704" s="15"/>
-      <c r="E704" s="16"/>
-      <c r="F704" s="15"/>
-      <c r="G704" s="15"/>
-      <c r="H704" s="15"/>
+      <c r="B704" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C704" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D704" s="15">
+        <v>1553845066</v>
+      </c>
+      <c r="E704" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F704" s="15" t="s">
+        <v>712</v>
+      </c>
+      <c r="G704" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H704" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="I704" s="20"/>
       <c r="J704" s="19"/>
       <c r="K704" s="18"/>
@@ -38801,19 +38815,19 @@
         <v>0.166666666666667</v>
       </c>
       <c r="D705" s="15">
-        <v>1146026653</v>
+        <v>1117751667</v>
       </c>
       <c r="E705" s="16" t="s">
         <v>609</v>
       </c>
       <c r="F705" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G705" s="15" t="s">
-        <v>542</v>
+        <v>47</v>
       </c>
       <c r="H705" s="15" t="s">
-        <v>543</v>
+        <v>234</v>
       </c>
       <c r="I705" s="20"/>
       <c r="J705" s="19"/>
@@ -38876,17 +38890,29 @@
       <c r="AF706" s="18"/>
       <c r="AG706" s="18"/>
     </row>
-    <row r="707" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A707" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="B707" s="10"/>
-      <c r="C707" s="10"/>
-      <c r="D707" s="10"/>
-      <c r="E707" s="11"/>
-      <c r="F707" s="10"/>
-      <c r="G707" s="10"/>
-      <c r="H707" s="10"/>
+    <row r="707" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A707" s="6"/>
+      <c r="B707" s="14">
+        <v>0.791666666666667</v>
+      </c>
+      <c r="C707" s="14">
+        <v>0.166666666666667</v>
+      </c>
+      <c r="D707" s="15">
+        <v>1146026653</v>
+      </c>
+      <c r="E707" s="16" t="s">
+        <v>609</v>
+      </c>
+      <c r="F707" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="G707" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="H707" s="15" t="s">
+        <v>543</v>
+      </c>
       <c r="I707" s="20"/>
       <c r="J707" s="19"/>
       <c r="K707" s="18"/>
@@ -38914,28 +38940,14 @@
       <c r="AG707" s="18"/>
     </row>
     <row r="708" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A708" s="12"/>
-      <c r="B708" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C708" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D708" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E708" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F708" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G708" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H708" s="8" t="s">
-        <v>6</v>
-      </c>
+      <c r="A708" s="6"/>
+      <c r="B708" s="14"/>
+      <c r="C708" s="14"/>
+      <c r="D708" s="15"/>
+      <c r="E708" s="16"/>
+      <c r="F708" s="15"/>
+      <c r="G708" s="15"/>
+      <c r="H708" s="15"/>
       <c r="I708" s="20"/>
       <c r="J708" s="19"/>
       <c r="K708" s="18"/>
@@ -38962,15 +38974,17 @@
       <c r="AF708" s="18"/>
       <c r="AG708" s="18"/>
     </row>
-    <row r="709" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A709" s="6"/>
-      <c r="B709" s="14"/>
-      <c r="C709" s="14"/>
-      <c r="D709" s="15"/>
-      <c r="E709" s="16"/>
-      <c r="F709" s="15"/>
-      <c r="G709" s="15"/>
-      <c r="H709" s="15"/>
+    <row r="709" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A709" s="9">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="B709" s="10"/>
+      <c r="C709" s="10"/>
+      <c r="D709" s="10"/>
+      <c r="E709" s="11"/>
+      <c r="F709" s="10"/>
+      <c r="G709" s="10"/>
+      <c r="H709" s="10"/>
       <c r="I709" s="20"/>
       <c r="J709" s="19"/>
       <c r="K709" s="18"/>
@@ -38997,28 +39011,28 @@
       <c r="AF709" s="18"/>
       <c r="AG709" s="18"/>
     </row>
-    <row r="710" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A710" s="6"/>
-      <c r="B710" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C710" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D710" s="15">
-        <v>1019633118</v>
-      </c>
-      <c r="E710" s="16">
-        <v>10266290</v>
-      </c>
-      <c r="F710" s="15" t="s">
-        <v>715</v>
-      </c>
-      <c r="G710" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H710" s="15" t="s">
-        <v>20</v>
+    <row r="710" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A710" s="12"/>
+      <c r="B710" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C710" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D710" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E710" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F710" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G710" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H710" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I710" s="20"/>
       <c r="J710" s="19"/>
@@ -39089,20 +39103,20 @@
       <c r="C712" s="14">
         <v>0.208333333333333</v>
       </c>
-      <c r="D712" s="15" t="s">
-        <v>716</v>
+      <c r="D712" s="15">
+        <v>1019633118</v>
       </c>
       <c r="E712" s="16">
-        <v>10344169</v>
+        <v>10266290</v>
       </c>
       <c r="F712" s="15" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="G712" s="15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="H712" s="15" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I712" s="20"/>
       <c r="J712" s="19"/>
@@ -39174,19 +39188,19 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D714" s="15" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="E714" s="16">
-        <v>10325077</v>
+        <v>10344169</v>
       </c>
       <c r="F714" s="15" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="G714" s="15" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="H714" s="15" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="I714" s="20"/>
       <c r="J714" s="19"/>
@@ -39251,13 +39265,27 @@
     </row>
     <row r="716" ht="47.25" customHeight="1" spans="1:33">
       <c r="A716" s="6"/>
-      <c r="B716" s="14"/>
-      <c r="C716" s="14"/>
-      <c r="D716" s="15"/>
-      <c r="E716" s="16"/>
-      <c r="F716" s="15"/>
-      <c r="G716" s="15"/>
-      <c r="H716" s="15"/>
+      <c r="B716" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C716" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D716" s="15" t="s">
+        <v>718</v>
+      </c>
+      <c r="E716" s="16">
+        <v>10325077</v>
+      </c>
+      <c r="F716" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="G716" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H716" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="I716" s="20"/>
       <c r="J716" s="19"/>
       <c r="K716" s="18"/>
@@ -39286,27 +39314,13 @@
     </row>
     <row r="717" ht="47.25" customHeight="1" spans="1:33">
       <c r="A717" s="6"/>
-      <c r="B717" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C717" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D717" s="15">
-        <v>1097762201</v>
-      </c>
-      <c r="E717" s="16">
-        <v>10326498</v>
-      </c>
-      <c r="F717" s="15" t="s">
-        <v>720</v>
-      </c>
-      <c r="G717" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="H717" s="15" t="s">
-        <v>421</v>
-      </c>
+      <c r="B717" s="14"/>
+      <c r="C717" s="14"/>
+      <c r="D717" s="15"/>
+      <c r="E717" s="16"/>
+      <c r="F717" s="15"/>
+      <c r="G717" s="15"/>
+      <c r="H717" s="15"/>
       <c r="I717" s="20"/>
       <c r="J717" s="19"/>
       <c r="K717" s="18"/>
@@ -39377,19 +39391,19 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D719" s="15">
-        <v>1098670413</v>
+        <v>1097762201</v>
       </c>
       <c r="E719" s="16">
-        <v>10344186</v>
+        <v>10326498</v>
       </c>
       <c r="F719" s="15" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G719" s="15" t="s">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="H719" s="15" t="s">
-        <v>143</v>
+        <v>421</v>
       </c>
       <c r="I719" s="20"/>
       <c r="J719" s="19"/>
@@ -39454,13 +39468,27 @@
     </row>
     <row r="721" ht="47.25" customHeight="1" spans="1:33">
       <c r="A721" s="6"/>
-      <c r="B721" s="14"/>
-      <c r="C721" s="14"/>
-      <c r="D721" s="15"/>
-      <c r="E721" s="16"/>
-      <c r="F721" s="15"/>
-      <c r="G721" s="15"/>
-      <c r="H721" s="15"/>
+      <c r="B721" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C721" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D721" s="15">
+        <v>1098670413</v>
+      </c>
+      <c r="E721" s="16">
+        <v>10344186</v>
+      </c>
+      <c r="F721" s="15" t="s">
+        <v>721</v>
+      </c>
+      <c r="G721" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H721" s="15" t="s">
+        <v>143</v>
+      </c>
       <c r="I721" s="20"/>
       <c r="J721" s="19"/>
       <c r="K721" s="18"/>
@@ -39489,27 +39517,13 @@
     </row>
     <row r="722" ht="47.25" customHeight="1" spans="1:33">
       <c r="A722" s="6"/>
-      <c r="B722" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C722" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D722" s="15">
-        <v>1127552530</v>
-      </c>
-      <c r="E722" s="16">
-        <v>10314763</v>
-      </c>
-      <c r="F722" s="15" t="s">
-        <v>722</v>
-      </c>
-      <c r="G722" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="H722" s="15" t="s">
-        <v>170</v>
-      </c>
+      <c r="B722" s="14"/>
+      <c r="C722" s="14"/>
+      <c r="D722" s="15"/>
+      <c r="E722" s="16"/>
+      <c r="F722" s="15"/>
+      <c r="G722" s="15"/>
+      <c r="H722" s="15"/>
       <c r="I722" s="20"/>
       <c r="J722" s="19"/>
       <c r="K722" s="18"/>
@@ -39580,19 +39594,19 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D724" s="15">
-        <v>1004911039</v>
+        <v>1127552530</v>
       </c>
       <c r="E724" s="16">
-        <v>10344279</v>
+        <v>10314763</v>
       </c>
       <c r="F724" s="15" t="s">
-        <v>401</v>
+        <v>722</v>
       </c>
       <c r="G724" s="15" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H724" s="15" t="s">
-        <v>60</v>
+        <v>170</v>
       </c>
       <c r="I724" s="20"/>
       <c r="J724" s="19"/>
@@ -39622,27 +39636,13 @@
     </row>
     <row r="725" ht="47.25" customHeight="1" spans="1:33">
       <c r="A725" s="6"/>
-      <c r="B725" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C725" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D725" s="15">
-        <v>1226223707</v>
-      </c>
-      <c r="E725" s="16">
-        <v>10344485</v>
-      </c>
-      <c r="F725" s="15" t="s">
-        <v>723</v>
-      </c>
-      <c r="G725" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H725" s="15" t="s">
-        <v>189</v>
-      </c>
+      <c r="B725" s="14"/>
+      <c r="C725" s="14"/>
+      <c r="D725" s="15"/>
+      <c r="E725" s="16"/>
+      <c r="F725" s="15"/>
+      <c r="G725" s="15"/>
+      <c r="H725" s="15"/>
       <c r="I725" s="20"/>
       <c r="J725" s="19"/>
       <c r="K725" s="18"/>
@@ -39671,13 +39671,27 @@
     </row>
     <row r="726" ht="47.25" customHeight="1" spans="1:33">
       <c r="A726" s="6"/>
-      <c r="B726" s="14"/>
-      <c r="C726" s="14"/>
-      <c r="D726" s="15"/>
-      <c r="E726" s="16"/>
-      <c r="F726" s="15"/>
-      <c r="G726" s="15"/>
-      <c r="H726" s="15"/>
+      <c r="B726" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C726" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D726" s="15">
+        <v>1226223707</v>
+      </c>
+      <c r="E726" s="16">
+        <v>10344485</v>
+      </c>
+      <c r="F726" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="G726" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H726" s="15" t="s">
+        <v>189</v>
+      </c>
       <c r="I726" s="20"/>
       <c r="J726" s="19"/>
       <c r="K726" s="18"/>
@@ -39741,27 +39755,13 @@
     </row>
     <row r="728" ht="47.25" customHeight="1" spans="1:33">
       <c r="A728" s="6"/>
-      <c r="B728" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C728" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D728" s="15">
-        <v>1023850840</v>
-      </c>
-      <c r="E728" s="16">
-        <v>10344883</v>
-      </c>
-      <c r="F728" s="15" t="s">
-        <v>724</v>
-      </c>
-      <c r="G728" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H728" s="15" t="s">
-        <v>209</v>
-      </c>
+      <c r="B728" s="14"/>
+      <c r="C728" s="14"/>
+      <c r="D728" s="15"/>
+      <c r="E728" s="16"/>
+      <c r="F728" s="15"/>
+      <c r="G728" s="15"/>
+      <c r="H728" s="15"/>
       <c r="I728" s="20"/>
       <c r="J728" s="19"/>
       <c r="K728" s="18"/>
@@ -39797,19 +39797,19 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D729" s="15">
-        <v>1121899603</v>
+        <v>1023850840</v>
       </c>
       <c r="E729" s="16">
-        <v>10344278</v>
+        <v>10344883</v>
       </c>
       <c r="F729" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G729" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H729" s="15" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="I729" s="20"/>
       <c r="J729" s="19"/>
@@ -39846,19 +39846,19 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D730" s="15">
-        <v>1555097529</v>
+        <v>1121899603</v>
       </c>
       <c r="E730" s="16">
-        <v>10344175</v>
+        <v>10344278</v>
       </c>
       <c r="F730" s="15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G730" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H730" s="15" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I730" s="20"/>
       <c r="J730" s="19"/>
@@ -39895,19 +39895,19 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D731" s="15">
-        <v>1026041099</v>
+        <v>1555097529</v>
       </c>
       <c r="E731" s="16">
-        <v>10344170</v>
+        <v>10344175</v>
       </c>
       <c r="F731" s="15" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G731" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H731" s="15" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="I731" s="20"/>
       <c r="J731" s="19"/>
@@ -39943,20 +39943,20 @@
       <c r="C732" s="14">
         <v>0.208333333333333</v>
       </c>
-      <c r="D732" s="15" t="s">
-        <v>728</v>
+      <c r="D732" s="15">
+        <v>1026041099</v>
       </c>
       <c r="E732" s="16">
-        <v>10344192</v>
+        <v>10344170</v>
       </c>
       <c r="F732" s="15" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="G732" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H732" s="15" t="s">
-        <v>219</v>
+        <v>65</v>
       </c>
       <c r="I732" s="20"/>
       <c r="J732" s="19"/>
@@ -39986,13 +39986,27 @@
     </row>
     <row r="733" ht="47.25" customHeight="1" spans="1:33">
       <c r="A733" s="6"/>
-      <c r="B733" s="14"/>
-      <c r="C733" s="14"/>
-      <c r="D733" s="15"/>
-      <c r="E733" s="16"/>
-      <c r="F733" s="15"/>
-      <c r="G733" s="15"/>
-      <c r="H733" s="15"/>
+      <c r="B733" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C733" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D733" s="15" t="s">
+        <v>728</v>
+      </c>
+      <c r="E733" s="16">
+        <v>10344192</v>
+      </c>
+      <c r="F733" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="G733" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H733" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="I733" s="20"/>
       <c r="J733" s="19"/>
       <c r="K733" s="18"/>
@@ -40021,27 +40035,13 @@
     </row>
     <row r="734" ht="47.25" customHeight="1" spans="1:33">
       <c r="A734" s="6"/>
-      <c r="B734" s="14">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="C734" s="14">
-        <v>0.208333333333333</v>
-      </c>
-      <c r="D734" s="15" t="s">
-        <v>730</v>
-      </c>
-      <c r="E734" s="16">
-        <v>10344214</v>
-      </c>
-      <c r="F734" s="15" t="s">
-        <v>731</v>
-      </c>
-      <c r="G734" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H734" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B734" s="14"/>
+      <c r="C734" s="14"/>
+      <c r="D734" s="15"/>
+      <c r="E734" s="16"/>
+      <c r="F734" s="15"/>
+      <c r="G734" s="15"/>
+      <c r="H734" s="15"/>
       <c r="I734" s="20"/>
       <c r="J734" s="19"/>
       <c r="K734" s="18"/>
@@ -40076,14 +40076,14 @@
       <c r="C735" s="14">
         <v>0.208333333333333</v>
       </c>
-      <c r="D735" s="15">
-        <v>1555975766</v>
+      <c r="D735" s="15" t="s">
+        <v>730</v>
       </c>
       <c r="E735" s="16">
-        <v>10344308</v>
+        <v>10344214</v>
       </c>
       <c r="F735" s="15" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G735" s="15" t="s">
         <v>16</v>
@@ -40126,13 +40126,13 @@
         <v>0.208333333333333</v>
       </c>
       <c r="D736" s="15">
-        <v>1040334849</v>
+        <v>1555975766</v>
       </c>
       <c r="E736" s="16">
-        <v>10344286</v>
+        <v>10344308</v>
       </c>
       <c r="F736" s="15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G736" s="15" t="s">
         <v>16</v>
@@ -40168,13 +40168,27 @@
     </row>
     <row r="737" ht="47.25" customHeight="1" spans="1:33">
       <c r="A737" s="6"/>
-      <c r="B737" s="14"/>
-      <c r="C737" s="14"/>
-      <c r="D737" s="15"/>
-      <c r="E737" s="16"/>
-      <c r="F737" s="15"/>
-      <c r="G737" s="15"/>
-      <c r="H737" s="15"/>
+      <c r="B737" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C737" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D737" s="15">
+        <v>1040334849</v>
+      </c>
+      <c r="E737" s="16">
+        <v>10344286</v>
+      </c>
+      <c r="F737" s="15" t="s">
+        <v>733</v>
+      </c>
+      <c r="G737" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H737" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I737" s="20"/>
       <c r="J737" s="19"/>
       <c r="K737" s="18"/>
@@ -40201,28 +40215,28 @@
       <c r="AF737" s="18"/>
       <c r="AG737" s="18"/>
     </row>
-    <row r="738" ht="47.25" customHeight="1" spans="1:33">
+    <row r="738" ht="43.5" customHeight="1" spans="1:33">
       <c r="A738" s="6"/>
       <c r="B738" s="14">
         <v>0.833333333333333</v>
       </c>
       <c r="C738" s="14">
-        <v>0.208333333333333</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="D738" s="15">
-        <v>1203091448</v>
+        <v>1153727814</v>
       </c>
       <c r="E738" s="16">
-        <v>10344261</v>
+        <v>10292490</v>
       </c>
       <c r="F738" s="15" t="s">
         <v>734</v>
       </c>
       <c r="G738" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="H738" s="15" t="s">
-        <v>543</v>
+        <v>16</v>
+      </c>
+      <c r="H738" s="29" t="s">
+        <v>17</v>
       </c>
       <c r="I738" s="20"/>
       <c r="J738" s="19"/>
@@ -40285,17 +40299,29 @@
       <c r="AF739" s="18"/>
       <c r="AG739" s="18"/>
     </row>
-    <row r="740" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A740" s="9">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="B740" s="10"/>
-      <c r="C740" s="10"/>
-      <c r="D740" s="10"/>
-      <c r="E740" s="11"/>
-      <c r="F740" s="10"/>
-      <c r="G740" s="10"/>
-      <c r="H740" s="10"/>
+    <row r="740" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A740" s="6"/>
+      <c r="B740" s="14">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="C740" s="14">
+        <v>0.208333333333333</v>
+      </c>
+      <c r="D740" s="15">
+        <v>1203091448</v>
+      </c>
+      <c r="E740" s="16">
+        <v>10344261</v>
+      </c>
+      <c r="F740" s="15" t="s">
+        <v>735</v>
+      </c>
+      <c r="G740" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="H740" s="15" t="s">
+        <v>543</v>
+      </c>
       <c r="I740" s="20"/>
       <c r="J740" s="19"/>
       <c r="K740" s="18"/>
@@ -40322,29 +40348,15 @@
       <c r="AF740" s="18"/>
       <c r="AG740" s="18"/>
     </row>
-    <row r="741" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A741" s="9"/>
-      <c r="B741" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C741" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D741" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E741" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F741" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G741" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H741" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="741" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A741" s="6"/>
+      <c r="B741" s="14"/>
+      <c r="C741" s="14"/>
+      <c r="D741" s="15"/>
+      <c r="E741" s="16"/>
+      <c r="F741" s="15"/>
+      <c r="G741" s="15"/>
+      <c r="H741" s="15"/>
       <c r="I741" s="20"/>
       <c r="J741" s="19"/>
       <c r="K741" s="18"/>
@@ -40371,15 +40383,17 @@
       <c r="AF741" s="18"/>
       <c r="AG741" s="18"/>
     </row>
-    <row r="742" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A742" s="6"/>
-      <c r="B742" s="14"/>
-      <c r="C742" s="14"/>
-      <c r="D742" s="15"/>
-      <c r="E742" s="16"/>
-      <c r="F742" s="15"/>
-      <c r="G742" s="15"/>
-      <c r="H742" s="15"/>
+    <row r="742" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A742" s="9">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="B742" s="10"/>
+      <c r="C742" s="10"/>
+      <c r="D742" s="10"/>
+      <c r="E742" s="11"/>
+      <c r="F742" s="10"/>
+      <c r="G742" s="10"/>
+      <c r="H742" s="10"/>
       <c r="I742" s="20"/>
       <c r="J742" s="19"/>
       <c r="K742" s="18"/>
@@ -40406,28 +40420,28 @@
       <c r="AF742" s="18"/>
       <c r="AG742" s="18"/>
     </row>
-    <row r="743" ht="47.25" customHeight="1" spans="1:33">
-      <c r="A743" s="6"/>
-      <c r="B743" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C743" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D743" s="15">
-        <v>1110081480</v>
-      </c>
-      <c r="E743" s="16">
-        <v>10335056</v>
-      </c>
-      <c r="F743" s="15" t="s">
-        <v>735</v>
-      </c>
-      <c r="G743" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H743" s="15" t="s">
-        <v>26</v>
+    <row r="743" ht="43.5" customHeight="1" spans="1:33">
+      <c r="A743" s="9"/>
+      <c r="B743" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C743" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D743" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E743" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F743" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G743" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H743" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I743" s="20"/>
       <c r="J743" s="19"/>
@@ -40499,19 +40513,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D745" s="15">
-        <v>1112246872</v>
+        <v>1110081480</v>
       </c>
       <c r="E745" s="16">
-        <v>10334449</v>
+        <v>10335056</v>
       </c>
       <c r="F745" s="15" t="s">
         <v>736</v>
       </c>
       <c r="G745" s="15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H745" s="15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I745" s="20"/>
       <c r="J745" s="19"/>
@@ -40583,19 +40597,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D747" s="15">
-        <v>1204888981</v>
+        <v>1112246872</v>
       </c>
       <c r="E747" s="16">
-        <v>10304619</v>
+        <v>10334449</v>
       </c>
       <c r="F747" s="15" t="s">
         <v>737</v>
       </c>
       <c r="G747" s="15" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="H747" s="15" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="I747" s="20"/>
       <c r="J747" s="19"/>
@@ -40667,19 +40681,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D749" s="15">
-        <v>1001519732</v>
+        <v>1204888981</v>
       </c>
       <c r="E749" s="16">
-        <v>10326463</v>
+        <v>10304619</v>
       </c>
       <c r="F749" s="15" t="s">
         <v>738</v>
       </c>
       <c r="G749" s="15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="H749" s="15" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I749" s="20"/>
       <c r="J749" s="19"/>
@@ -40751,19 +40765,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D751" s="15">
-        <v>1067631730</v>
+        <v>1001519732</v>
       </c>
       <c r="E751" s="16">
-        <v>10315965</v>
+        <v>10326463</v>
       </c>
       <c r="F751" s="15" t="s">
         <v>739</v>
       </c>
       <c r="G751" s="15" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="H751" s="15" t="s">
-        <v>174</v>
+        <v>33</v>
       </c>
       <c r="I751" s="20"/>
       <c r="J751" s="19"/>
@@ -40835,19 +40849,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D753" s="15">
-        <v>0</v>
+        <v>1067631730</v>
       </c>
       <c r="E753" s="16">
-        <v>10334393</v>
+        <v>10315965</v>
       </c>
       <c r="F753" s="15" t="s">
         <v>740</v>
       </c>
       <c r="G753" s="15" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="H753" s="15" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="I753" s="20"/>
       <c r="J753" s="19"/>
@@ -40919,19 +40933,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D755" s="15">
-        <v>1553989783</v>
+        <v>0</v>
       </c>
       <c r="E755" s="16">
-        <v>10335120</v>
+        <v>10334393</v>
       </c>
       <c r="F755" s="15" t="s">
         <v>741</v>
       </c>
       <c r="G755" s="15" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="H755" s="15" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="I755" s="20"/>
       <c r="J755" s="19"/>
@@ -40961,27 +40975,13 @@
     </row>
     <row r="756" ht="47.25" customHeight="1" spans="1:33">
       <c r="A756" s="6"/>
-      <c r="B756" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C756" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D756" s="15">
-        <v>1016789685</v>
-      </c>
-      <c r="E756" s="16">
-        <v>10335024</v>
-      </c>
-      <c r="F756" s="15" t="s">
-        <v>742</v>
-      </c>
-      <c r="G756" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H756" s="15" t="s">
-        <v>17</v>
-      </c>
+      <c r="B756" s="14"/>
+      <c r="C756" s="14"/>
+      <c r="D756" s="15"/>
+      <c r="E756" s="16"/>
+      <c r="F756" s="15"/>
+      <c r="G756" s="15"/>
+      <c r="H756" s="15"/>
       <c r="I756" s="20"/>
       <c r="J756" s="19"/>
       <c r="K756" s="18"/>
@@ -41010,13 +41010,27 @@
     </row>
     <row r="757" ht="47.25" customHeight="1" spans="1:33">
       <c r="A757" s="6"/>
-      <c r="B757" s="14"/>
-      <c r="C757" s="14"/>
-      <c r="D757" s="15"/>
-      <c r="E757" s="16"/>
-      <c r="F757" s="15"/>
-      <c r="G757" s="15"/>
-      <c r="H757" s="15"/>
+      <c r="B757" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C757" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D757" s="15">
+        <v>1553989783</v>
+      </c>
+      <c r="E757" s="16">
+        <v>10335120</v>
+      </c>
+      <c r="F757" s="15" t="s">
+        <v>742</v>
+      </c>
+      <c r="G757" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H757" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I757" s="20"/>
       <c r="J757" s="19"/>
       <c r="K757" s="18"/>
@@ -41052,19 +41066,19 @@
         <v>0.291666666666667</v>
       </c>
       <c r="D758" s="15">
-        <v>1126644481</v>
+        <v>1016789685</v>
       </c>
       <c r="E758" s="16">
-        <v>10304629</v>
+        <v>10335024</v>
       </c>
       <c r="F758" s="15" t="s">
         <v>743</v>
       </c>
       <c r="G758" s="15" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="H758" s="15" t="s">
-        <v>243</v>
+        <v>17</v>
       </c>
       <c r="I758" s="20"/>
       <c r="J758" s="19"/>
@@ -41094,27 +41108,13 @@
     </row>
     <row r="759" ht="47.25" customHeight="1" spans="1:33">
       <c r="A759" s="6"/>
-      <c r="B759" s="14">
-        <v>0.916666666666667</v>
-      </c>
-      <c r="C759" s="14">
-        <v>0.291666666666667</v>
-      </c>
-      <c r="D759" s="15">
-        <v>1026128069</v>
-      </c>
-      <c r="E759" s="16">
-        <v>10323547</v>
-      </c>
-      <c r="F759" s="15" t="s">
-        <v>744</v>
-      </c>
-      <c r="G759" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H759" s="15" t="s">
-        <v>48</v>
-      </c>
+      <c r="B759" s="14"/>
+      <c r="C759" s="14"/>
+      <c r="D759" s="15"/>
+      <c r="E759" s="16"/>
+      <c r="F759" s="15"/>
+      <c r="G759" s="15"/>
+      <c r="H759" s="15"/>
       <c r="I759" s="20"/>
       <c r="J759" s="19"/>
       <c r="K759" s="18"/>
@@ -41149,20 +41149,20 @@
       <c r="C760" s="14">
         <v>0.291666666666667</v>
       </c>
-      <c r="D760" s="15" t="s">
-        <v>745</v>
+      <c r="D760" s="15">
+        <v>1126644481</v>
       </c>
       <c r="E760" s="16">
-        <v>10332513</v>
+        <v>10304629</v>
       </c>
       <c r="F760" s="15" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="G760" s="15" t="s">
         <v>47</v>
       </c>
       <c r="H760" s="15" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="I760" s="20"/>
       <c r="J760" s="19"/>
@@ -41192,13 +41192,27 @@
     </row>
     <row r="761" ht="47.25" customHeight="1" spans="1:33">
       <c r="A761" s="6"/>
-      <c r="B761" s="14"/>
-      <c r="C761" s="14"/>
-      <c r="D761" s="15"/>
-      <c r="E761" s="16"/>
-      <c r="F761" s="15"/>
-      <c r="G761" s="15"/>
-      <c r="H761" s="15"/>
+      <c r="B761" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C761" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D761" s="15">
+        <v>1026128069</v>
+      </c>
+      <c r="E761" s="16">
+        <v>10323547</v>
+      </c>
+      <c r="F761" s="15" t="s">
+        <v>745</v>
+      </c>
+      <c r="G761" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H761" s="15" t="s">
+        <v>48</v>
+      </c>
       <c r="I761" s="20"/>
       <c r="J761" s="19"/>
       <c r="K761" s="18"/>
@@ -41233,20 +41247,20 @@
       <c r="C762" s="14">
         <v>0.291666666666667</v>
       </c>
-      <c r="D762" s="15">
-        <v>1008797315</v>
+      <c r="D762" s="15" t="s">
+        <v>746</v>
       </c>
       <c r="E762" s="16">
-        <v>10334423</v>
+        <v>10332513</v>
       </c>
       <c r="F762" s="15" t="s">
         <v>747</v>
       </c>
       <c r="G762" s="15" t="s">
-        <v>542</v>
+        <v>47</v>
       </c>
       <c r="H762" s="15" t="s">
-        <v>543</v>
+        <v>234</v>
       </c>
       <c r="I762" s="20"/>
       <c r="J762" s="19"/>
@@ -41309,17 +41323,29 @@
       <c r="AF763" s="18"/>
       <c r="AG763" s="18"/>
     </row>
-    <row r="764" ht="7.5" customHeight="1" spans="1:33">
-      <c r="A764" s="9">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="B764" s="10"/>
-      <c r="C764" s="10"/>
-      <c r="D764" s="10"/>
-      <c r="E764" s="11"/>
-      <c r="F764" s="10"/>
-      <c r="G764" s="10"/>
-      <c r="H764" s="10"/>
+    <row r="764" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A764" s="6"/>
+      <c r="B764" s="14">
+        <v>0.916666666666667</v>
+      </c>
+      <c r="C764" s="14">
+        <v>0.291666666666667</v>
+      </c>
+      <c r="D764" s="15">
+        <v>1008797315</v>
+      </c>
+      <c r="E764" s="16">
+        <v>10334423</v>
+      </c>
+      <c r="F764" s="15" t="s">
+        <v>748</v>
+      </c>
+      <c r="G764" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="H764" s="15" t="s">
+        <v>543</v>
+      </c>
       <c r="I764" s="20"/>
       <c r="J764" s="19"/>
       <c r="K764" s="18"/>
@@ -41346,29 +41372,15 @@
       <c r="AF764" s="18"/>
       <c r="AG764" s="18"/>
     </row>
-    <row r="765" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A765" s="12"/>
-      <c r="B765" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C765" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D765" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E765" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F765" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G765" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H765" s="8" t="s">
-        <v>6</v>
-      </c>
+    <row r="765" ht="47.25" customHeight="1" spans="1:33">
+      <c r="A765" s="6"/>
+      <c r="B765" s="14"/>
+      <c r="C765" s="14"/>
+      <c r="D765" s="15"/>
+      <c r="E765" s="16"/>
+      <c r="F765" s="15"/>
+      <c r="G765" s="15"/>
+      <c r="H765" s="15"/>
       <c r="I765" s="20"/>
       <c r="J765" s="19"/>
       <c r="K765" s="18"/>
@@ -41395,15 +41407,17 @@
       <c r="AF765" s="18"/>
       <c r="AG765" s="18"/>
     </row>
-    <row r="766" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A766" s="6"/>
-      <c r="B766" s="14"/>
-      <c r="C766" s="14"/>
-      <c r="D766" s="15"/>
-      <c r="E766" s="16"/>
-      <c r="F766" s="15"/>
-      <c r="G766" s="15"/>
-      <c r="H766" s="15"/>
+    <row r="766" ht="7.5" customHeight="1" spans="1:33">
+      <c r="A766" s="9">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="B766" s="10"/>
+      <c r="C766" s="10"/>
+      <c r="D766" s="10"/>
+      <c r="E766" s="11"/>
+      <c r="F766" s="10"/>
+      <c r="G766" s="10"/>
+      <c r="H766" s="10"/>
       <c r="I766" s="20"/>
       <c r="J766" s="19"/>
       <c r="K766" s="18"/>
@@ -41431,27 +41445,27 @@
       <c r="AG766" s="18"/>
     </row>
     <row r="767" ht="43.5" customHeight="1" spans="1:33">
-      <c r="A767" s="6"/>
-      <c r="B767" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C767" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D767" s="15">
+      <c r="A767" s="12"/>
+      <c r="B767" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E767" s="16">
-        <v>10345547</v>
-      </c>
-      <c r="F767" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G767" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="H767" s="15" t="s">
-        <v>551</v>
+      <c r="C767" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D767" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E767" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F767" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G767" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H767" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="I767" s="20"/>
       <c r="J767" s="19"/>
@@ -41481,27 +41495,13 @@
     </row>
     <row r="768" ht="43.5" customHeight="1" spans="1:33">
       <c r="A768" s="6"/>
-      <c r="B768" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C768" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D768" s="15">
-        <v>1092831999</v>
-      </c>
-      <c r="E768" s="16">
-        <v>10344167</v>
-      </c>
-      <c r="F768" s="15" t="s">
-        <v>748</v>
-      </c>
-      <c r="G768" s="15" t="s">
-        <v>749</v>
-      </c>
-      <c r="H768" s="15" t="s">
-        <v>749</v>
-      </c>
+      <c r="B768" s="14"/>
+      <c r="C768" s="14"/>
+      <c r="D768" s="15"/>
+      <c r="E768" s="16"/>
+      <c r="F768" s="15"/>
+      <c r="G768" s="15"/>
+      <c r="H768" s="15"/>
       <c r="I768" s="20"/>
       <c r="J768" s="19"/>
       <c r="K768" s="18"/>
@@ -41530,13 +41530,27 @@
     </row>
     <row r="769" ht="43.5" customHeight="1" spans="1:33">
       <c r="A769" s="6"/>
-      <c r="B769" s="14"/>
-      <c r="C769" s="14"/>
-      <c r="D769" s="15"/>
-      <c r="E769" s="16"/>
-      <c r="F769" s="15"/>
-      <c r="G769" s="15"/>
-      <c r="H769" s="15"/>
+      <c r="B769" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C769" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D769" s="15">
+        <v>0</v>
+      </c>
+      <c r="E769" s="16">
+        <v>10345547</v>
+      </c>
+      <c r="F769" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G769" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="H769" s="15" t="s">
+        <v>551</v>
+      </c>
       <c r="I769" s="20"/>
       <c r="J769" s="19"/>
       <c r="K769" s="18"/>
@@ -41572,19 +41586,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D770" s="15">
-        <v>1129574541</v>
+        <v>1092831999</v>
       </c>
       <c r="E770" s="16">
-        <v>10344864</v>
+        <v>10344167</v>
       </c>
       <c r="F770" s="15" t="s">
+        <v>749</v>
+      </c>
+      <c r="G770" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="G770" s="15" t="s">
-        <v>25</v>
-      </c>
       <c r="H770" s="15" t="s">
-        <v>50</v>
+        <v>750</v>
       </c>
       <c r="I770" s="20"/>
       <c r="J770" s="19"/>
@@ -41614,27 +41628,13 @@
     </row>
     <row r="771" ht="43.5" customHeight="1" spans="1:33">
       <c r="A771" s="6"/>
-      <c r="B771" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C771" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D771" s="15" t="s">
-        <v>751</v>
-      </c>
-      <c r="E771" s="16">
-        <v>10331191</v>
-      </c>
-      <c r="F771" s="15" t="s">
-        <v>752</v>
-      </c>
-      <c r="G771" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="H771" s="15" t="s">
-        <v>50</v>
-      </c>
+      <c r="B771" s="14"/>
+      <c r="C771" s="14"/>
+      <c r="D771" s="15"/>
+      <c r="E771" s="16"/>
+      <c r="F771" s="15"/>
+      <c r="G771" s="15"/>
+      <c r="H771" s="15"/>
       <c r="I771" s="20"/>
       <c r="J771" s="19"/>
       <c r="K771" s="18"/>
@@ -41670,19 +41670,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D772" s="15">
-        <v>1117301562</v>
+        <v>1129574541</v>
       </c>
       <c r="E772" s="16">
-        <v>10344173</v>
+        <v>10344864</v>
       </c>
       <c r="F772" s="15" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="G772" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H772" s="15" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="I772" s="20"/>
       <c r="J772" s="19"/>
@@ -41712,13 +41712,27 @@
     </row>
     <row r="773" ht="43.5" customHeight="1" spans="1:33">
       <c r="A773" s="6"/>
-      <c r="B773" s="14"/>
-      <c r="C773" s="14"/>
-      <c r="D773" s="15"/>
-      <c r="E773" s="16"/>
-      <c r="F773" s="15"/>
-      <c r="G773" s="15"/>
-      <c r="H773" s="15"/>
+      <c r="B773" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C773" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D773" s="15" t="s">
+        <v>752</v>
+      </c>
+      <c r="E773" s="16">
+        <v>10331191</v>
+      </c>
+      <c r="F773" s="15" t="s">
+        <v>753</v>
+      </c>
+      <c r="G773" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="H773" s="15" t="s">
+        <v>50</v>
+      </c>
       <c r="I773" s="20"/>
       <c r="J773" s="19"/>
       <c r="K773" s="18"/>
@@ -41754,19 +41768,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D774" s="15">
-        <v>1021293302</v>
+        <v>1117301562</v>
       </c>
       <c r="E774" s="16">
-        <v>10344866</v>
+        <v>10344173</v>
       </c>
       <c r="F774" s="15" t="s">
-        <v>21</v>
+        <v>754</v>
       </c>
       <c r="G774" s="15" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="H774" s="15" t="s">
-        <v>569</v>
+        <v>28</v>
       </c>
       <c r="I774" s="20"/>
       <c r="J774" s="19"/>
@@ -41796,27 +41810,13 @@
     </row>
     <row r="775" ht="43.5" customHeight="1" spans="1:33">
       <c r="A775" s="6"/>
-      <c r="B775" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C775" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D775" s="15">
-        <v>1122706070</v>
-      </c>
-      <c r="E775" s="16">
-        <v>10344863</v>
-      </c>
-      <c r="F775" s="15" t="s">
-        <v>754</v>
-      </c>
-      <c r="G775" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H775" s="15" t="s">
-        <v>35</v>
-      </c>
+      <c r="B775" s="14"/>
+      <c r="C775" s="14"/>
+      <c r="D775" s="15"/>
+      <c r="E775" s="16"/>
+      <c r="F775" s="15"/>
+      <c r="G775" s="15"/>
+      <c r="H775" s="15"/>
       <c r="I775" s="20"/>
       <c r="J775" s="19"/>
       <c r="K775" s="18"/>
@@ -41852,19 +41852,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D776" s="15">
-        <v>1095617866</v>
+        <v>1021293302</v>
       </c>
       <c r="E776" s="16">
-        <v>10344856</v>
+        <v>10344866</v>
       </c>
       <c r="F776" s="15" t="s">
-        <v>755</v>
+        <v>21</v>
       </c>
       <c r="G776" s="15" t="s">
         <v>13</v>
       </c>
       <c r="H776" s="15" t="s">
-        <v>141</v>
+        <v>569</v>
       </c>
       <c r="I776" s="20"/>
       <c r="J776" s="19"/>
@@ -41894,13 +41894,27 @@
     </row>
     <row r="777" ht="43.5" customHeight="1" spans="1:33">
       <c r="A777" s="6"/>
-      <c r="B777" s="14"/>
-      <c r="C777" s="14"/>
-      <c r="D777" s="15"/>
-      <c r="E777" s="16"/>
-      <c r="F777" s="15"/>
-      <c r="G777" s="15"/>
-      <c r="H777" s="15"/>
+      <c r="B777" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C777" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D777" s="15">
+        <v>1122706070</v>
+      </c>
+      <c r="E777" s="16">
+        <v>10344863</v>
+      </c>
+      <c r="F777" s="15" t="s">
+        <v>755</v>
+      </c>
+      <c r="G777" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H777" s="15" t="s">
+        <v>35</v>
+      </c>
       <c r="I777" s="20"/>
       <c r="J777" s="19"/>
       <c r="K777" s="18"/>
@@ -41936,19 +41950,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D778" s="15">
-        <v>1144462771</v>
+        <v>1095617866</v>
       </c>
       <c r="E778" s="16">
-        <v>10344752</v>
+        <v>10344856</v>
       </c>
       <c r="F778" s="15" t="s">
         <v>756</v>
       </c>
       <c r="G778" s="15" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="H778" s="15" t="s">
-        <v>62</v>
+        <v>141</v>
       </c>
       <c r="I778" s="20"/>
       <c r="J778" s="19"/>
@@ -41978,27 +41992,13 @@
     </row>
     <row r="779" ht="43.5" customHeight="1" spans="1:33">
       <c r="A779" s="6"/>
-      <c r="B779" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C779" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D779" s="15">
-        <v>1552456793</v>
-      </c>
-      <c r="E779" s="16">
-        <v>10344749</v>
-      </c>
-      <c r="F779" s="15" t="s">
-        <v>757</v>
-      </c>
-      <c r="G779" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H779" s="15" t="s">
-        <v>60</v>
-      </c>
+      <c r="B779" s="14"/>
+      <c r="C779" s="14"/>
+      <c r="D779" s="15"/>
+      <c r="E779" s="16"/>
+      <c r="F779" s="15"/>
+      <c r="G779" s="15"/>
+      <c r="H779" s="15"/>
       <c r="I779" s="20"/>
       <c r="J779" s="19"/>
       <c r="K779" s="18"/>
@@ -42034,19 +42034,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D780" s="15">
-        <v>1093443771</v>
+        <v>1144462771</v>
       </c>
       <c r="E780" s="16">
-        <v>10344757</v>
+        <v>10344752</v>
       </c>
       <c r="F780" s="15" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G780" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H780" s="15" t="s">
-        <v>331</v>
+        <v>62</v>
       </c>
       <c r="I780" s="20"/>
       <c r="J780" s="19"/>
@@ -42083,19 +42083,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D781" s="15">
-        <v>1095204998</v>
+        <v>1552456793</v>
       </c>
       <c r="E781" s="16">
-        <v>10344242</v>
+        <v>10344749</v>
       </c>
       <c r="F781" s="15" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G781" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H781" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I781" s="20"/>
       <c r="J781" s="19"/>
@@ -42132,19 +42132,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D782" s="15">
-        <v>1060392059</v>
+        <v>1093443771</v>
       </c>
       <c r="E782" s="16">
-        <v>10344236</v>
+        <v>10344757</v>
       </c>
       <c r="F782" s="15" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G782" s="15" t="s">
         <v>55</v>
       </c>
       <c r="H782" s="15" t="s">
-        <v>185</v>
+        <v>331</v>
       </c>
       <c r="I782" s="20"/>
       <c r="J782" s="19"/>
@@ -42174,13 +42174,27 @@
     </row>
     <row r="783" ht="43.5" customHeight="1" spans="1:33">
       <c r="A783" s="6"/>
-      <c r="B783" s="14"/>
-      <c r="C783" s="14"/>
-      <c r="D783" s="15"/>
-      <c r="E783" s="16"/>
-      <c r="F783" s="15"/>
-      <c r="G783" s="15"/>
-      <c r="H783" s="15"/>
+      <c r="B783" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C783" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D783" s="15">
+        <v>1095204998</v>
+      </c>
+      <c r="E783" s="16">
+        <v>10344242</v>
+      </c>
+      <c r="F783" s="15" t="s">
+        <v>760</v>
+      </c>
+      <c r="G783" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H783" s="15" t="s">
+        <v>58</v>
+      </c>
       <c r="I783" s="20"/>
       <c r="J783" s="19"/>
       <c r="K783" s="18"/>
@@ -42216,19 +42230,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D784" s="15">
-        <v>1555493119</v>
+        <v>1060392059</v>
       </c>
       <c r="E784" s="16">
-        <v>10344901</v>
+        <v>10344236</v>
       </c>
       <c r="F784" s="15" t="s">
         <v>761</v>
       </c>
       <c r="G784" s="15" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="H784" s="15" t="s">
-        <v>65</v>
+        <v>185</v>
       </c>
       <c r="I784" s="20"/>
       <c r="J784" s="19"/>
@@ -42258,27 +42272,13 @@
     </row>
     <row r="785" ht="43.5" customHeight="1" spans="1:33">
       <c r="A785" s="6"/>
-      <c r="B785" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C785" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D785" s="15">
-        <v>1099361043</v>
-      </c>
-      <c r="E785" s="16">
-        <v>10344884</v>
-      </c>
-      <c r="F785" s="15" t="s">
-        <v>762</v>
-      </c>
-      <c r="G785" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="H785" s="15" t="s">
-        <v>286</v>
-      </c>
+      <c r="B785" s="14"/>
+      <c r="C785" s="14"/>
+      <c r="D785" s="15"/>
+      <c r="E785" s="16"/>
+      <c r="F785" s="15"/>
+      <c r="G785" s="15"/>
+      <c r="H785" s="15"/>
       <c r="I785" s="20"/>
       <c r="J785" s="19"/>
       <c r="K785" s="18"/>
@@ -42314,13 +42314,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D786" s="15">
-        <v>1153210480</v>
+        <v>1555493119</v>
       </c>
       <c r="E786" s="16">
-        <v>10344865</v>
+        <v>10344901</v>
       </c>
       <c r="F786" s="15" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G786" s="15" t="s">
         <v>64</v>
@@ -42363,19 +42363,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D787" s="15">
-        <v>1066953383</v>
+        <v>1099361043</v>
       </c>
       <c r="E787" s="16">
-        <v>10344858</v>
+        <v>10344884</v>
       </c>
       <c r="F787" s="15" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G787" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H787" s="15" t="s">
-        <v>65</v>
+        <v>286</v>
       </c>
       <c r="I787" s="20"/>
       <c r="J787" s="19"/>
@@ -42412,19 +42412,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D788" s="15">
-        <v>1505849880</v>
+        <v>1153210480</v>
       </c>
       <c r="E788" s="16">
-        <v>10344860</v>
+        <v>10344865</v>
       </c>
       <c r="F788" s="15" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G788" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H788" s="15" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="I788" s="20"/>
       <c r="J788" s="19"/>
@@ -42461,13 +42461,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D789" s="15">
-        <v>1145149773</v>
+        <v>1066953383</v>
       </c>
       <c r="E789" s="16">
-        <v>10344235</v>
+        <v>10344858</v>
       </c>
       <c r="F789" s="15" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G789" s="15" t="s">
         <v>64</v>
@@ -42510,19 +42510,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D790" s="15">
-        <v>1551584488</v>
+        <v>1505849880</v>
       </c>
       <c r="E790" s="16">
-        <v>10344250</v>
+        <v>10344860</v>
       </c>
       <c r="F790" s="15" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G790" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H790" s="15" t="s">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="I790" s="20"/>
       <c r="J790" s="19"/>
@@ -42559,19 +42559,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D791" s="15">
-        <v>1094190472</v>
+        <v>1145149773</v>
       </c>
       <c r="E791" s="16">
-        <v>10345545</v>
+        <v>10344235</v>
       </c>
       <c r="F791" s="15" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G791" s="15" t="s">
         <v>64</v>
       </c>
       <c r="H791" s="15" t="s">
-        <v>221</v>
+        <v>65</v>
       </c>
       <c r="I791" s="20"/>
       <c r="J791" s="19"/>
@@ -42601,13 +42601,27 @@
     </row>
     <row r="792" ht="43.5" customHeight="1" spans="1:33">
       <c r="A792" s="6"/>
-      <c r="B792" s="14"/>
-      <c r="C792" s="14"/>
-      <c r="D792" s="15"/>
-      <c r="E792" s="16"/>
-      <c r="F792" s="15"/>
-      <c r="G792" s="15"/>
-      <c r="H792" s="15"/>
+      <c r="B792" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C792" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D792" s="15">
+        <v>1551584488</v>
+      </c>
+      <c r="E792" s="16">
+        <v>10344250</v>
+      </c>
+      <c r="F792" s="15" t="s">
+        <v>768</v>
+      </c>
+      <c r="G792" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H792" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="I792" s="20"/>
       <c r="J792" s="19"/>
       <c r="K792" s="18"/>
@@ -42643,19 +42657,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D793" s="15">
-        <v>1090642201</v>
+        <v>1094190472</v>
       </c>
       <c r="E793" s="16">
-        <v>10344770</v>
+        <v>10345545</v>
       </c>
       <c r="F793" s="15" t="s">
         <v>769</v>
       </c>
       <c r="G793" s="15" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H793" s="15" t="s">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="I793" s="20"/>
       <c r="J793" s="19"/>
@@ -42685,27 +42699,13 @@
     </row>
     <row r="794" ht="43.5" customHeight="1" spans="1:33">
       <c r="A794" s="6"/>
-      <c r="B794" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C794" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D794" s="15">
-        <v>1509946439</v>
-      </c>
-      <c r="E794" s="16">
-        <v>10344252</v>
-      </c>
-      <c r="F794" s="15" t="s">
-        <v>770</v>
-      </c>
-      <c r="G794" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H794" s="15" t="s">
-        <v>524</v>
-      </c>
+      <c r="B794" s="14"/>
+      <c r="C794" s="14"/>
+      <c r="D794" s="15"/>
+      <c r="E794" s="16"/>
+      <c r="F794" s="15"/>
+      <c r="G794" s="15"/>
+      <c r="H794" s="15"/>
       <c r="I794" s="20"/>
       <c r="J794" s="19"/>
       <c r="K794" s="18"/>
@@ -42741,13 +42741,13 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D795" s="15">
-        <v>1091643089</v>
+        <v>1090642201</v>
       </c>
       <c r="E795" s="16">
-        <v>10314789</v>
+        <v>10344770</v>
       </c>
       <c r="F795" s="15" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G795" s="15" t="s">
         <v>43</v>
@@ -42790,19 +42790,19 @@
         <v>0.333333333333333</v>
       </c>
       <c r="D796" s="15">
-        <v>1153727814</v>
+        <v>1509946439</v>
       </c>
       <c r="E796" s="16">
-        <v>10292490</v>
+        <v>10344252</v>
       </c>
       <c r="F796" s="15" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G796" s="15" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="H796" s="15" t="s">
-        <v>17</v>
+        <v>524</v>
       </c>
       <c r="I796" s="20"/>
       <c r="J796" s="19"/>
@@ -42832,13 +42832,27 @@
     </row>
     <row r="797" ht="43.5" customHeight="1" spans="1:33">
       <c r="A797" s="6"/>
-      <c r="B797" s="14"/>
-      <c r="C797" s="14"/>
-      <c r="D797" s="15"/>
-      <c r="E797" s="16"/>
-      <c r="F797" s="15"/>
-      <c r="G797" s="15"/>
-      <c r="H797" s="15"/>
+      <c r="B797" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C797" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D797" s="15">
+        <v>1091643089</v>
+      </c>
+      <c r="E797" s="16">
+        <v>10314789</v>
+      </c>
+      <c r="F797" s="15" t="s">
+        <v>772</v>
+      </c>
+      <c r="G797" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H797" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="I797" s="20"/>
       <c r="J797" s="19"/>
       <c r="K797" s="18"/>
@@ -42867,27 +42881,13 @@
     </row>
     <row r="798" ht="43.5" customHeight="1" spans="1:33">
       <c r="A798" s="6"/>
-      <c r="B798" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C798" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D798" s="15">
-        <v>1140254052</v>
-      </c>
-      <c r="E798" s="16">
-        <v>10344240</v>
-      </c>
-      <c r="F798" s="15" t="s">
-        <v>773</v>
-      </c>
-      <c r="G798" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H798" s="15" t="s">
-        <v>234</v>
-      </c>
+      <c r="B798" s="14"/>
+      <c r="C798" s="14"/>
+      <c r="D798" s="15"/>
+      <c r="E798" s="16"/>
+      <c r="F798" s="15"/>
+      <c r="G798" s="15"/>
+      <c r="H798" s="15"/>
       <c r="I798" s="20"/>
       <c r="J798" s="19"/>
       <c r="K798" s="18"/>
@@ -42916,13 +42916,27 @@
     </row>
     <row r="799" ht="43.5" customHeight="1" spans="1:33">
       <c r="A799" s="6"/>
-      <c r="B799" s="14"/>
-      <c r="C799" s="14"/>
-      <c r="D799" s="15"/>
-      <c r="E799" s="16"/>
-      <c r="F799" s="15"/>
-      <c r="G799" s="15"/>
-      <c r="H799" s="15"/>
+      <c r="B799" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C799" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D799" s="15">
+        <v>1140254052</v>
+      </c>
+      <c r="E799" s="16">
+        <v>10344240</v>
+      </c>
+      <c r="F799" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="G799" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H799" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="I799" s="20"/>
       <c r="J799" s="19"/>
       <c r="K799" s="18"/>
@@ -42951,27 +42965,13 @@
     </row>
     <row r="800" ht="43.5" customHeight="1" spans="1:33">
       <c r="A800" s="6"/>
-      <c r="B800" s="14">
-        <v>0.958333333333333</v>
-      </c>
-      <c r="C800" s="14">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D800" s="15">
-        <v>1026876551</v>
-      </c>
-      <c r="E800" s="16">
-        <v>10345744</v>
-      </c>
-      <c r="F800" s="15" t="s">
-        <v>774</v>
-      </c>
-      <c r="G800" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="H800" s="15" t="s">
-        <v>543</v>
-      </c>
+      <c r="B800" s="14"/>
+      <c r="C800" s="14"/>
+      <c r="D800" s="15"/>
+      <c r="E800" s="16"/>
+      <c r="F800" s="15"/>
+      <c r="G800" s="15"/>
+      <c r="H800" s="15"/>
       <c r="I800" s="20"/>
       <c r="J800" s="19"/>
       <c r="K800" s="18"/>
@@ -43000,13 +43000,27 @@
     </row>
     <row r="801" ht="43.5" customHeight="1" spans="1:33">
       <c r="A801" s="6"/>
-      <c r="B801" s="14"/>
-      <c r="C801" s="14"/>
-      <c r="D801" s="15"/>
-      <c r="E801" s="16"/>
-      <c r="F801" s="15"/>
-      <c r="G801" s="15"/>
-      <c r="H801" s="15"/>
+      <c r="B801" s="14">
+        <v>0.958333333333333</v>
+      </c>
+      <c r="C801" s="14">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D801" s="15">
+        <v>1026876551</v>
+      </c>
+      <c r="E801" s="16">
+        <v>10345744</v>
+      </c>
+      <c r="F801" s="15" t="s">
+        <v>774</v>
+      </c>
+      <c r="G801" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="H801" s="15" t="s">
+        <v>543</v>
+      </c>
       <c r="I801" s="20"/>
       <c r="J801" s="19"/>
       <c r="K801" s="18"/>
@@ -43033,15 +43047,15 @@
       <c r="AF801" s="18"/>
       <c r="AG801" s="18"/>
     </row>
-    <row r="802" ht="15" customHeight="1" spans="1:33">
+    <row r="802" ht="43.5" customHeight="1" spans="1:33">
       <c r="A802" s="6"/>
-      <c r="B802" s="28"/>
-      <c r="C802" s="28"/>
-      <c r="D802" s="29"/>
-      <c r="E802" s="30"/>
-      <c r="F802" s="29"/>
-      <c r="G802" s="29"/>
-      <c r="H802" s="29"/>
+      <c r="B802" s="14"/>
+      <c r="C802" s="14"/>
+      <c r="D802" s="15"/>
+      <c r="E802" s="16"/>
+      <c r="F802" s="15"/>
+      <c r="G802" s="15"/>
+      <c r="H802" s="15"/>
       <c r="I802" s="20"/>
       <c r="J802" s="19"/>
       <c r="K802" s="18"/>
@@ -43068,14 +43082,49 @@
       <c r="AF802" s="18"/>
       <c r="AG802" s="18"/>
     </row>
-    <row r="805" spans="5:5">
-      <c r="E805" s="31"/>
+    <row r="803" ht="15" customHeight="1" spans="1:33">
+      <c r="A803" s="6"/>
+      <c r="B803" s="30"/>
+      <c r="C803" s="30"/>
+      <c r="D803" s="31"/>
+      <c r="E803" s="32"/>
+      <c r="F803" s="31"/>
+      <c r="G803" s="31"/>
+      <c r="H803" s="31"/>
+      <c r="I803" s="20"/>
+      <c r="J803" s="19"/>
+      <c r="K803" s="18"/>
+      <c r="L803" s="18"/>
+      <c r="M803" s="18"/>
+      <c r="N803" s="18"/>
+      <c r="O803" s="18"/>
+      <c r="P803" s="18"/>
+      <c r="Q803" s="18"/>
+      <c r="R803" s="18"/>
+      <c r="S803" s="18"/>
+      <c r="T803" s="18"/>
+      <c r="U803" s="18"/>
+      <c r="V803" s="18"/>
+      <c r="W803" s="18"/>
+      <c r="X803" s="18"/>
+      <c r="Y803" s="18"/>
+      <c r="Z803" s="18"/>
+      <c r="AA803" s="18"/>
+      <c r="AB803" s="18"/>
+      <c r="AC803" s="18"/>
+      <c r="AD803" s="18"/>
+      <c r="AE803" s="18"/>
+      <c r="AF803" s="18"/>
+      <c r="AG803" s="18"/>
     </row>
     <row r="806" spans="5:5">
-      <c r="E806" s="31"/>
+      <c r="E806" s="33"/>
     </row>
     <row r="807" spans="5:5">
-      <c r="E807" s="31"/>
+      <c r="E807" s="33"/>
+    </row>
+    <row r="808" spans="5:5">
+      <c r="E808" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -43092,10 +43141,10 @@
     <mergeCell ref="A533:A534"/>
     <mergeCell ref="A588:A589"/>
     <mergeCell ref="A593:A594"/>
-    <mergeCell ref="A602:A603"/>
-    <mergeCell ref="A707:A708"/>
-    <mergeCell ref="A740:A741"/>
-    <mergeCell ref="A764:A765"/>
+    <mergeCell ref="A604:A605"/>
+    <mergeCell ref="A709:A710"/>
+    <mergeCell ref="A742:A743"/>
+    <mergeCell ref="A766:A767"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
